--- a/Analise de Imas trocados.xlsx
+++ b/Analise de Imas trocados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\de.ferreira\Desktop\dashboard_substituicao_imas_Eolico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842F83EB-AF54-4FE8-91E5-E3EAA8C8C1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB761053-023E-47B1-9757-8F511603A993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" xr2:uid="{C091DDEC-8DDA-4975-BC4F-7DE5C097025C}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_Brutos!$D$147:$D$194</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="429">
   <si>
     <t>OS</t>
   </si>
@@ -1347,16 +1346,19 @@
     <t>Quarto Ciclo</t>
   </si>
   <si>
-    <t>Foi substituido 10 Ímãs (C76)</t>
-  </si>
-  <si>
-    <t>Foi substituido 10 Ímãs (C02)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Qtd. Carreiras/ 4º Ciclo</t>
+  </si>
+  <si>
+    <t>Foi realizado a inspeção no dia 12/11/25 e realizado a substituição de 10 Ímãs (C67) e 10 Ímãs (C94)</t>
+  </si>
+  <si>
+    <t>Foi realizado a inspeção no dia 03/11/25 e realizado a substituição de 10 Ímãs (C76)</t>
+  </si>
+  <si>
+    <t>Foi realizado a inspeção no dia 05/11/25 e realizado a substituição de 10 Ímãs (C02) no dia 06/11/25</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1615,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1859,31 +1861,28 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1892,48 +1891,69 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="908">
+  <dxfs count="413">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2869,14 +2889,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2986,886 +3006,578 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -6905,6 +6617,48 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -7228,6 +6982,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -7235,15 +6998,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -7273,3226 +7027,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -12230,23 +8764,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{800E856C-6607-4D98-BFEB-2BE5F71CA5E8}" name="Tabela1" displayName="Tabela1" ref="A1:N149" totalsRowShown="0" headerRowDxfId="907" dataDxfId="906">
-  <autoFilter ref="A1:N149" xr:uid="{800E856C-6607-4D98-BFEB-2BE5F71CA5E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{800E856C-6607-4D98-BFEB-2BE5F71CA5E8}" name="Tabela1" displayName="Tabela1" ref="A1:N152" totalsRowShown="0" headerRowDxfId="412" dataDxfId="411">
+  <autoFilter ref="A1:N152" xr:uid="{800E856C-6607-4D98-BFEB-2BE5F71CA5E8}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7FCD003E-153F-43DB-AA4A-1676809C7384}" name="DATA INSPECAO" dataDxfId="905"/>
-    <tableColumn id="2" xr3:uid="{AEEFCEF7-1215-4625-B285-F7F658E999EF}" name="OS" dataDxfId="904"/>
-    <tableColumn id="3" xr3:uid="{22DED7C2-56BB-42C6-BD8E-432A86049675}" name="CLUSTER" dataDxfId="903"/>
-    <tableColumn id="4" xr3:uid="{5DF1CE56-9FA1-4522-8603-1F2E0EC093EC}" name="TURBINA" dataDxfId="902"/>
-    <tableColumn id="5" xr3:uid="{3C0B586C-F4E2-4151-A6EF-68D0DB2631B8}" name="QTD IMAS TROCADOS" dataDxfId="901"/>
-    <tableColumn id="7" xr3:uid="{B48C9A5F-0414-4F69-A3C0-BDFECF8264FC}" name="DESCRICAO" dataDxfId="900"/>
-    <tableColumn id="8" xr3:uid="{87494AEA-BE8A-4E32-8B06-238BF1E79DB8}" name="CICLO INSPECAO" dataDxfId="899"/>
-    <tableColumn id="9" xr3:uid="{87876F8A-1D15-4144-BCAC-ADF0ACF4390B}" name="STATUS" dataDxfId="898"/>
-    <tableColumn id="10" xr3:uid="{0781DD7D-B7F7-44D3-9826-13290DBA36CD}" name="DATA SUBSTITUICAO" dataDxfId="897"/>
-    <tableColumn id="11" xr3:uid="{1290D750-5DA2-4B9B-97A8-2E5126B30F38}" name="K1DIAS PARADA" dataDxfId="896"/>
-    <tableColumn id="12" xr3:uid="{C56EB845-90F8-4F7C-A965-4AFC9DBAD89D}" name="DOWNWIND" dataDxfId="895"/>
-    <tableColumn id="15" xr3:uid="{B7FF9DB3-BD1E-423A-ABF1-0E7EF1CC647A}" name="UPWIND" dataDxfId="894"/>
-    <tableColumn id="13" xr3:uid="{69FDC412-3B88-4288-B3BF-EF087B5D6A8C}" name="OBSERVACOES" dataDxfId="893"/>
-    <tableColumn id="14" xr3:uid="{AE8CB749-E012-420A-8EE1-3C71105716DC}" name="PRIORIDADE" dataDxfId="892">
+    <tableColumn id="1" xr3:uid="{7FCD003E-153F-43DB-AA4A-1676809C7384}" name="DATA INSPECAO" dataDxfId="410"/>
+    <tableColumn id="2" xr3:uid="{AEEFCEF7-1215-4625-B285-F7F658E999EF}" name="OS" dataDxfId="409"/>
+    <tableColumn id="3" xr3:uid="{22DED7C2-56BB-42C6-BD8E-432A86049675}" name="CLUSTER" dataDxfId="408"/>
+    <tableColumn id="4" xr3:uid="{5DF1CE56-9FA1-4522-8603-1F2E0EC093EC}" name="TURBINA" dataDxfId="407"/>
+    <tableColumn id="5" xr3:uid="{3C0B586C-F4E2-4151-A6EF-68D0DB2631B8}" name="QTD IMAS TROCADOS" dataDxfId="406"/>
+    <tableColumn id="7" xr3:uid="{B48C9A5F-0414-4F69-A3C0-BDFECF8264FC}" name="DESCRICAO" dataDxfId="405"/>
+    <tableColumn id="8" xr3:uid="{87494AEA-BE8A-4E32-8B06-238BF1E79DB8}" name="CICLO INSPECAO" dataDxfId="404"/>
+    <tableColumn id="9" xr3:uid="{87876F8A-1D15-4144-BCAC-ADF0ACF4390B}" name="STATUS" dataDxfId="403"/>
+    <tableColumn id="10" xr3:uid="{0781DD7D-B7F7-44D3-9826-13290DBA36CD}" name="DATA SUBSTITUICAO" dataDxfId="402"/>
+    <tableColumn id="11" xr3:uid="{1290D750-5DA2-4B9B-97A8-2E5126B30F38}" name="K1DIAS PARADA" dataDxfId="401"/>
+    <tableColumn id="12" xr3:uid="{C56EB845-90F8-4F7C-A965-4AFC9DBAD89D}" name="DOWNWIND" dataDxfId="400"/>
+    <tableColumn id="15" xr3:uid="{B7FF9DB3-BD1E-423A-ABF1-0E7EF1CC647A}" name="UPWIND" dataDxfId="399"/>
+    <tableColumn id="13" xr3:uid="{69FDC412-3B88-4288-B3BF-EF087B5D6A8C}" name="OBSERVACOES" dataDxfId="398"/>
+    <tableColumn id="14" xr3:uid="{AE8CB749-E012-420A-8EE1-3C71105716DC}" name="PRIORIDADE" dataDxfId="397">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F2="Substituido",J2&gt;0,),"ALTA PRIORIDADE","NORMAL"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12255,12 +8789,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86AA5CD6-81AC-449F-9C99-E0A6C0A03293}" name="Tabela6" displayName="Tabela6" ref="A1:C6" totalsRowShown="0" headerRowDxfId="796" headerRowBorderDxfId="795" tableBorderDxfId="794" totalsRowBorderDxfId="793">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86AA5CD6-81AC-449F-9C99-E0A6C0A03293}" name="Tabela6" displayName="Tabela6" ref="A1:C6" totalsRowShown="0" headerRowDxfId="166" headerRowBorderDxfId="165" tableBorderDxfId="164" totalsRowBorderDxfId="163">
   <autoFilter ref="A1:C6" xr:uid="{86AA5CD6-81AC-449F-9C99-E0A6C0A03293}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC731B6E-08D8-43D9-8BB6-EFC2E89987FA}" name="MÉTRICASPRINCIPAIS-COMPLEXOEÓLICOSANTOINÁCIO" dataDxfId="792"/>
-    <tableColumn id="2" xr3:uid="{0C68B961-48FD-4464-9F00-B5B3E200EA08}" name="VALOR" dataDxfId="791"/>
-    <tableColumn id="3" xr3:uid="{A82666D6-DB2C-4460-B310-0B1498AAB175}" name="TENDÊNCIA" dataDxfId="790"/>
+    <tableColumn id="1" xr3:uid="{AC731B6E-08D8-43D9-8BB6-EFC2E89987FA}" name="MÉTRICASPRINCIPAIS-COMPLEXOEÓLICOSANTOINÁCIO" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{0C68B961-48FD-4464-9F00-B5B3E200EA08}" name="VALOR" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{A82666D6-DB2C-4460-B310-0B1498AAB175}" name="TENDÊNCIA" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12270,8 +8804,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BE3F322-B075-4FE1-8F55-C832AAE9F3B5}" name="Tabela7" displayName="Tabela7" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9" xr:uid="{3BE3F322-B075-4FE1-8F55-C832AAE9F3B5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DDB75188-D945-4F57-9101-A947B1411780}" name="PARÂMETRO" dataDxfId="789"/>
-    <tableColumn id="2" xr3:uid="{89418E74-1F80-4DA8-AE37-8A5A5E9D5507}" name="VALOR" dataDxfId="788"/>
+    <tableColumn id="1" xr3:uid="{DDB75188-D945-4F57-9101-A947B1411780}" name="PARÂMETRO" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{89418E74-1F80-4DA8-AE37-8A5A5E9D5507}" name="VALOR" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12289,70 +8823,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD55B448-2BFA-4489-B9C7-7D9C7001D1A8}" name="Tabela9" displayName="Tabela9" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="891" headerRowBorderDxfId="890" tableBorderDxfId="889" totalsRowBorderDxfId="888">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD55B448-2BFA-4489-B9C7-7D9C7001D1A8}" name="Tabela9" displayName="Tabela9" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="396" headerRowBorderDxfId="395" tableBorderDxfId="394" totalsRowBorderDxfId="393">
   <autoFilter ref="A1:H2" xr:uid="{FD55B448-2BFA-4489-B9C7-7D9C7001D1A8}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{97836502-E1DC-4DC7-A72B-FDBB211AEE11}" name=" Data " dataDxfId="887"/>
-    <tableColumn id="2" xr3:uid="{BA5EE5EE-B564-4B0F-8C7C-E3C6171D1169}" name=" OS " dataDxfId="886"/>
-    <tableColumn id="3" xr3:uid="{36C749CD-C5BC-4ADE-9694-92585629087C}" name=" AEG " dataDxfId="885"/>
-    <tableColumn id="4" xr3:uid="{0D4D132D-BE54-48E5-B8D6-F9C470188B08}" name=" Total_Imas " dataDxfId="884"/>
-    <tableColumn id="5" xr3:uid="{81F5DAC0-6F67-41B4-9F59-6182EEC90473}" name="Carreiras" dataDxfId="883"/>
-    <tableColumn id="7" xr3:uid="{C898380C-27C4-44F5-81D2-C072A9212369}" name="Classificação_Port" dataDxfId="882"/>
-    <tableColumn id="8" xr3:uid="{3DB386DB-A0DE-4398-BDFA-39CE262882AA}" name="Classificação_StarPort" dataDxfId="881"/>
-    <tableColumn id="9" xr3:uid="{BA11790A-4BC9-4E0A-8567-E8FCA3B63CE2}" name="Classificação_Geral" dataDxfId="880"/>
+    <tableColumn id="1" xr3:uid="{97836502-E1DC-4DC7-A72B-FDBB211AEE11}" name=" Data " dataDxfId="392"/>
+    <tableColumn id="2" xr3:uid="{BA5EE5EE-B564-4B0F-8C7C-E3C6171D1169}" name=" OS " dataDxfId="391"/>
+    <tableColumn id="3" xr3:uid="{36C749CD-C5BC-4ADE-9694-92585629087C}" name=" AEG " dataDxfId="390"/>
+    <tableColumn id="4" xr3:uid="{0D4D132D-BE54-48E5-B8D6-F9C470188B08}" name=" Total_Imas " dataDxfId="389"/>
+    <tableColumn id="5" xr3:uid="{81F5DAC0-6F67-41B4-9F59-6182EEC90473}" name="Carreiras" dataDxfId="388"/>
+    <tableColumn id="7" xr3:uid="{C898380C-27C4-44F5-81D2-C072A9212369}" name="Classificação_Port" dataDxfId="387"/>
+    <tableColumn id="8" xr3:uid="{3DB386DB-A0DE-4398-BDFA-39CE262882AA}" name="Classificação_StarPort" dataDxfId="386"/>
+    <tableColumn id="9" xr3:uid="{BA11790A-4BC9-4E0A-8567-E8FCA3B63CE2}" name="Classificação_Geral" dataDxfId="385"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE96D7C8-4F75-42BA-8D79-28E1FD2C8CFD}" name="Tabela2" displayName="Tabela2" ref="A1:P48" insertRowShift="1" totalsRowShown="0" headerRowDxfId="879" dataDxfId="877" headerRowBorderDxfId="878">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE96D7C8-4F75-42BA-8D79-28E1FD2C8CFD}" name="Tabela2" displayName="Tabela2" ref="A1:P48" insertRowShift="1" totalsRowShown="0" headerRowDxfId="384" dataDxfId="382" headerRowBorderDxfId="383">
   <autoFilter ref="A1:P48" xr:uid="{FE96D7C8-4F75-42BA-8D79-28E1FD2C8CFD}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{CE0AEE9A-B3A7-443A-B5A1-B19CD027B92E}" name=" TURBINA" dataDxfId="876"/>
-    <tableColumn id="2" xr3:uid="{955CBFC3-4989-4F2D-AA6E-6CC746CC385D}" name=" CLUSTER" dataDxfId="875">
+    <tableColumn id="1" xr3:uid="{CE0AEE9A-B3A7-443A-B5A1-B19CD027B92E}" name=" TURBINA" dataDxfId="381"/>
+    <tableColumn id="2" xr3:uid="{955CBFC3-4989-4F2D-AA6E-6CC746CC385D}" name=" CLUSTER" dataDxfId="380">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",_xlfn.XLOOKUP(Tabela2[[#This Row],[ TURBINA]],Tabela1[TURBINA],Tabela1[CLUSTER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{37BAFE99-1D77-415F-82D5-8C05081481F8}" name=" TOTAL IMAS TROCADOS" dataDxfId="874">
+    <tableColumn id="3" xr3:uid="{37BAFE99-1D77-415F-82D5-8C05081481F8}" name=" TOTAL IMAS TROCADOS" dataDxfId="379">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",SUMIF(Dados_Brutos!D:D,A2,Dados_Brutos!E:E))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{89B28A1E-4AEF-4235-B952-47EE29D5E960}" name=" PRIMEIRA INSPECAO" dataDxfId="873">
+    <tableColumn id="4" xr3:uid="{89B28A1E-4AEF-4235-B952-47EE29D5E960}" name=" PRIMEIRA INSPECAO" dataDxfId="378">
       <calculatedColumnFormula array="1">IF(Tabela2[[#This Row],[ TURBINA]]="","",MIN(IF(Dados_Brutos!D:D=Tabela2[[#This Row],[ TURBINA]],Dados_Brutos!A:A)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{47C215C2-5576-47E2-BAEE-15429400BADE}" name=" ULTIMA INSPECAO " dataDxfId="872">
+    <tableColumn id="5" xr3:uid="{47C215C2-5576-47E2-BAEE-15429400BADE}" name=" ULTIMA INSPECAO " dataDxfId="377">
       <calculatedColumnFormula array="1">IF(Tabela2[[#This Row],[ TURBINA]]="","",MAX(IF(Tabela1[TURBINA] =Tabela2[[#This Row],[ TURBINA]],Tabela1[DATA INSPECAO])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9D6203FF-9061-4D0E-B7B6-2C593380DA8D}" name=" STATUS ATUAL" dataDxfId="871">
+    <tableColumn id="6" xr3:uid="{9D6203FF-9061-4D0E-B7B6-2C593380DA8D}" name=" STATUS ATUAL" dataDxfId="376">
       <calculatedColumnFormula>IFERROR(INDEX(Dados_Brutos!H:H,MATCH(A2,Dados_Brutos!D:D,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{912E4613-32EB-43F7-9DDD-0F518989AE5B}" name=" DIAS PARADA ACUMULADOS" dataDxfId="870">
+    <tableColumn id="7" xr3:uid="{912E4613-32EB-43F7-9DDD-0F518989AE5B}" name=" DIAS PARADA ACUMULADOS" dataDxfId="375">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",SUMIF(Dados_Brutos!D:D,A2,Dados_Brutos!J:J))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DF170CD5-32F8-4F55-AC9A-3C37DBFE11A8}" name=" OXIDACAO BAIXA" dataDxfId="869">
+    <tableColumn id="8" xr3:uid="{DF170CD5-32F8-4F55-AC9A-3C37DBFE11A8}" name=" OXIDACAO BAIXA" dataDxfId="374">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A2,Dados_Brutos!K:K,"*Baixo*"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{24343BBD-E09F-4C74-87B5-E8EB63B72548}" name=" OXIDACAO MEDIA" dataDxfId="868">
+    <tableColumn id="9" xr3:uid="{24343BBD-E09F-4C74-87B5-E8EB63B72548}" name=" OXIDACAO MEDIA" dataDxfId="373">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A2,Dados_Brutos!K:K,"*Médio*"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8BE18476-6000-4693-BEB6-F308745F68D5}" name=" OXIDACAO ALTA" dataDxfId="867">
+    <tableColumn id="10" xr3:uid="{8BE18476-6000-4693-BEB6-F308745F68D5}" name=" OXIDACAO ALTA" dataDxfId="372">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A2,Dados_Brutos!K:K,"*Alto*"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A581969B-99F3-412B-9DAA-6F555344E1DB}" name=" NIVEL RISCO" dataDxfId="866">
+    <tableColumn id="11" xr3:uid="{A581969B-99F3-412B-9DAA-6F555344E1DB}" name=" NIVEL RISCO" dataDxfId="371">
       <calculatedColumnFormula>IF(Tabela2[[#This Row],[ TURBINA]]="","",IF(AND(C2&gt;20,J2&gt;3),"🟥 ALTO RISCO",IF(AND(C2&gt;10,I2&gt;1),"🟨 MÉDIO RISCO","🟩 BAIXO RISCO")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3ED84D74-8013-469C-9F19-813E1310516C}" name=" CUSTO ESTIMADO" dataDxfId="865" dataCellStyle="Moeda">
+    <tableColumn id="12" xr3:uid="{3ED84D74-8013-469C-9F19-813E1310516C}" name=" CUSTO ESTIMADO" dataDxfId="370" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela2[[#This Row],[ TOTAL IMAS TROCADOS]]*Config!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{2C801CD8-C980-43BF-8017-3C9C8181A1DF}" name=" MTBF DIAS" dataDxfId="864">
+    <tableColumn id="13" xr3:uid="{2C801CD8-C980-43BF-8017-3C9C8181A1DF}" name=" MTBF DIAS" dataDxfId="369">
       <calculatedColumnFormula>IF(C2&gt;0, (TODAY()-D2)/C2, "Sem dados")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3177BC24-E375-42B6-BA0C-30A64549695F}" name=" MTTR DIAS" dataDxfId="863">
+    <tableColumn id="14" xr3:uid="{3177BC24-E375-42B6-BA0C-30A64549695F}" name=" MTTR DIAS" dataDxfId="368">
       <calculatedColumnFormula>IF(C2&gt;0, G2/C2, "Sem dados")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A128C04D-2361-4F66-BA62-92800DB005C2}" name=" PROXIMA MANUTENCAO" dataDxfId="862">
+    <tableColumn id="15" xr3:uid="{A128C04D-2361-4F66-BA62-92800DB005C2}" name=" PROXIMA MANUTENCAO" dataDxfId="367">
       <calculatedColumnFormula>IFERROR(DATE(YEAR(E2),MONTH(E2)+7,DAY(E2)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2D6794B5-5CB8-4C77-ACE5-34C091C30585}" name=" INDICE -PERFORMANCE" dataDxfId="861">
+    <tableColumn id="16" xr3:uid="{2D6794B5-5CB8-4C77-ACE5-34C091C30585}" name=" INDICE -PERFORMANCE" dataDxfId="366">
       <calculatedColumnFormula>IFERROR(1-(G2/(TODAY()-D2)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12361,35 +8895,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4A1EEC3-7710-4C8B-969F-2711A40BAB30}" name="Tabela3" displayName="Tabela3" ref="A1:J6" insertRowShift="1" totalsRowShown="0" headerRowDxfId="860" dataDxfId="859">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4A1EEC3-7710-4C8B-969F-2711A40BAB30}" name="Tabela3" displayName="Tabela3" ref="A1:J6" insertRowShift="1" totalsRowShown="0" headerRowDxfId="365" dataDxfId="364">
   <autoFilter ref="A1:J6" xr:uid="{C4A1EEC3-7710-4C8B-969F-2711A40BAB30}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7F7A50AD-3634-481E-95FC-0C7EA2E100C8}" name="CICLO" dataDxfId="858"/>
-    <tableColumn id="2" xr3:uid="{4D18EB98-977F-42EC-B508-D0490344AE4B}" name="ANO" dataDxfId="857">
+    <tableColumn id="1" xr3:uid="{7F7A50AD-3634-481E-95FC-0C7EA2E100C8}" name="CICLO" dataDxfId="363"/>
+    <tableColumn id="2" xr3:uid="{4D18EB98-977F-42EC-B508-D0490344AE4B}" name="ANO" dataDxfId="362">
       <calculatedColumnFormula>IF(A2="Primeiro Ciclo", 2024, IF(A2="Segundo Ciclo", 2024, 2025))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{03DEA596-F760-4A12-B1DE-7D08486012ED}" name="TURBINAS INSPECIONADAS" dataDxfId="856">
+    <tableColumn id="3" xr3:uid="{03DEA596-F760-4A12-B1DE-7D08486012ED}" name="TURBINAS INSPECIONADAS" dataDxfId="361">
       <calculatedColumnFormula>COUNTIF(Dados_Brutos!G:G,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC9E9771-0A36-4854-8925-DEF407AFFBD5}" name="TURBINAS COM SUBSTITUICAO" dataDxfId="855">
+    <tableColumn id="4" xr3:uid="{AC9E9771-0A36-4854-8925-DEF407AFFBD5}" name="TURBINAS COM SUBSTITUICAO" dataDxfId="360">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!$G:$G,$A2,Dados_Brutos!$F:$F,"Substituido")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F8445D1F-3D0D-4039-BD02-11DB5F450A74}" name="TURBINAS PARADAS" dataDxfId="854">
+    <tableColumn id="11" xr3:uid="{F8445D1F-3D0D-4039-BD02-11DB5F450A74}" name="TURBINAS PARADAS" dataDxfId="359">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!$G:$G,$A2,Dados_Brutos!$H:$H,"Fora de Operação")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{90DEC507-070B-4F76-9D5A-68CE26BC560D}" name="IMAS TROCADOS TOTAL" dataDxfId="853">
+    <tableColumn id="5" xr3:uid="{90DEC507-070B-4F76-9D5A-68CE26BC560D}" name="IMAS TROCADOS TOTAL" dataDxfId="358">
       <calculatedColumnFormula>SUMIF(Dados_Brutos!G:G,A2,Dados_Brutos!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A8CD55C-BF04-40C4-BA49-A725CC6D8DF5}" name="OXIDACAO BAIXA" dataDxfId="852">
+    <tableColumn id="6" xr3:uid="{5A8CD55C-BF04-40C4-BA49-A725CC6D8DF5}" name="OXIDACAO BAIXA" dataDxfId="357">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!G:G,A2,Dados_Brutos!K:K,"*Baixo*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0640999E-3301-43D0-8A1E-44FDC72257A5}" name="OXIDACAO MEDIA" dataDxfId="851">
+    <tableColumn id="7" xr3:uid="{0640999E-3301-43D0-8A1E-44FDC72257A5}" name="OXIDACAO MEDIA" dataDxfId="356">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!G:G,A2,Dados_Brutos!K:K,"*Médio*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4B989A48-DA0E-4D96-BA0C-3EB806DEC279}" name="OXIDACAO ALTA" dataDxfId="850">
+    <tableColumn id="8" xr3:uid="{4B989A48-DA0E-4D96-BA0C-3EB806DEC279}" name="OXIDACAO ALTA" dataDxfId="355">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!G:G,A2,Dados_Brutos!K:K,"*Alto*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5B64102B-6DB9-4B93-AC1D-80031D77FA11}" name="CUSTO TOTAL" dataDxfId="849" dataCellStyle="Moeda">
+    <tableColumn id="10" xr3:uid="{5B64102B-6DB9-4B93-AC1D-80031D77FA11}" name="CUSTO TOTAL" dataDxfId="354" dataCellStyle="Moeda">
       <calculatedColumnFormula>F2*Config!$B$2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12398,35 +8932,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7E9D178D-4BDC-4763-AFEA-9A60A5B1D8BA}" name="Tabela4" displayName="Tabela4" ref="A1:J35" totalsRowShown="0" headerRowDxfId="848" dataDxfId="846" headerRowBorderDxfId="847" tableBorderDxfId="845" totalsRowBorderDxfId="844">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7E9D178D-4BDC-4763-AFEA-9A60A5B1D8BA}" name="Tabela4" displayName="Tabela4" ref="A1:J35" totalsRowShown="0" headerRowDxfId="353" dataDxfId="351" headerRowBorderDxfId="352" tableBorderDxfId="350" totalsRowBorderDxfId="349">
   <autoFilter ref="A1:J35" xr:uid="{7E9D178D-4BDC-4763-AFEA-9A60A5B1D8BA}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{82FC6B6B-640D-408B-9DB6-952BD0877DEF}" name="MES ANO" dataDxfId="843"/>
-    <tableColumn id="2" xr3:uid="{4053C375-312D-4A87-8DFB-3ACC2E2A96A2}" name="IMAS TROCADOS" dataDxfId="842">
+    <tableColumn id="1" xr3:uid="{82FC6B6B-640D-408B-9DB6-952BD0877DEF}" name="MES ANO" dataDxfId="348"/>
+    <tableColumn id="2" xr3:uid="{4053C375-312D-4A87-8DFB-3ACC2E2A96A2}" name="IMAS TROCADOS" dataDxfId="347">
       <calculatedColumnFormula>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{343FD3B7-E7F0-4D27-AC95-889BD16FFAEF}" name="TURBINAS PARADAS" dataDxfId="841">
+    <tableColumn id="3" xr3:uid="{343FD3B7-E7F0-4D27-AC95-889BD16FFAEF}" name="TURBINAS PARADAS" dataDxfId="346">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6CC9D214-35AA-483F-9806-405A4F75E8CF}" name="OXIDACAO BAIXA" dataDxfId="840">
+    <tableColumn id="4" xr3:uid="{6CC9D214-35AA-483F-9806-405A4F75E8CF}" name="OXIDACAO BAIXA" dataDxfId="345">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;$A2,Dados_Brutos!A:A,"&lt;="&amp;EOMONTH($A2,0),Dados_Brutos!K:K,"*Baixo*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD220698-E9A4-497D-AA3A-695DD951E7B1}" name="OXIDACAO MEDIA" dataDxfId="839">
+    <tableColumn id="5" xr3:uid="{DD220698-E9A4-497D-AA3A-695DD951E7B1}" name="OXIDACAO MEDIA" dataDxfId="344">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;$A2,Dados_Brutos!A:A,"&lt;="&amp;EOMONTH($A2,0),Dados_Brutos!K:K,"*Médio*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C06D9206-1F3D-4760-84CA-1416D0F23459}" name="OXIDACAO ALTA" dataDxfId="838">
+    <tableColumn id="6" xr3:uid="{C06D9206-1F3D-4760-84CA-1416D0F23459}" name="OXIDACAO ALTA" dataDxfId="343">
       <calculatedColumnFormula>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;$A2,Dados_Brutos!A:A,"&lt;="&amp;EOMONTH($A2,0),Dados_Brutos!K:K,"*Alto*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A0ADF3B-DF40-429B-B882-AE2132396D39}" name="CUSTO TOTAL" dataDxfId="837" dataCellStyle="Moeda">
+    <tableColumn id="7" xr3:uid="{3A0ADF3B-DF40-429B-B882-AE2132396D39}" name="CUSTO TOTAL" dataDxfId="342" dataCellStyle="Moeda">
       <calculatedColumnFormula>B2*Config!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{92350B02-CA4A-4C5C-82C0-3F2904D82ABF}" name="MTBF MES" dataDxfId="836">
+    <tableColumn id="8" xr3:uid="{92350B02-CA4A-4C5C-82C0-3F2904D82ABF}" name="MTBF MES" dataDxfId="341">
       <calculatedColumnFormula>IF(B2&gt;0, 30/B2, "Sem dados")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C7B29B76-656C-4750-8103-EEB17307DFD7}" name="MTTR MES" dataDxfId="835">
+    <tableColumn id="9" xr3:uid="{C7B29B76-656C-4750-8103-EEB17307DFD7}" name="MTTR MES" dataDxfId="340">
       <calculatedColumnFormula>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A2, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A2,0)),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8DC97549-FE78-4114-8FBF-E0E6FE31F0BD}" name="OEE MES" dataDxfId="834" dataCellStyle="Porcentagem">
+    <tableColumn id="10" xr3:uid="{8DC97549-FE78-4114-8FBF-E0E6FE31F0BD}" name="OEE MES" dataDxfId="339" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>(1-(SUMIFS(Dados_Brutos!J:J,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31))/(47*24*30)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12435,29 +8969,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{91F03FBC-0F2B-41F4-BC40-B02EB183DC51}" name="Tabela5" displayName="Tabela5" ref="A1:H121" totalsRowShown="0" headerRowDxfId="833" headerRowBorderDxfId="832" tableBorderDxfId="831" totalsRowBorderDxfId="830">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{91F03FBC-0F2B-41F4-BC40-B02EB183DC51}" name="Tabela5" displayName="Tabela5" ref="A1:H121" totalsRowShown="0" headerRowDxfId="338" headerRowBorderDxfId="337" tableBorderDxfId="336" totalsRowBorderDxfId="335">
   <autoFilter ref="A1:H121" xr:uid="{91F03FBC-0F2B-41F4-BC40-B02EB183DC51}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{36435265-2FAB-433C-B26C-BE74A39750BB}" name="CARREIRA" dataDxfId="829"/>
-    <tableColumn id="2" xr3:uid="{BC9B2B0E-8D1D-4232-BDEA-600C9649E7F6}" name="TURBINAS AFETADAS" dataDxfId="828">
+    <tableColumn id="1" xr3:uid="{36435265-2FAB-433C-B26C-BE74A39750BB}" name="CARREIRA" dataDxfId="334"/>
+    <tableColumn id="2" xr3:uid="{BC9B2B0E-8D1D-4232-BDEA-600C9649E7F6}" name="TURBINAS AFETADAS" dataDxfId="333">
       <calculatedColumnFormula>COUNTIF(Dados_Brutos!#REF!,A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{32ED3C10-2F51-426A-86EB-0D7A09CEBBA1}" name="TOTAL SUBSTITUICOES" dataDxfId="827">
+    <tableColumn id="3" xr3:uid="{32ED3C10-2F51-426A-86EB-0D7A09CEBBA1}" name="TOTAL SUBSTITUICOES" dataDxfId="332">
       <calculatedColumnFormula>SUMIF(Dados_Brutos!#REF!,A2,Dados_Brutos!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0E867001-DE82-4F4A-B350-9C93B32D9F33}" name="CICLO MAIS AFETADO" dataDxfId="826">
+    <tableColumn id="4" xr3:uid="{0E867001-DE82-4F4A-B350-9C93B32D9F33}" name="CICLO MAIS AFETADO" dataDxfId="331">
       <calculatedColumnFormula>IF(Tabela5[[#This Row],[TURBINAS AFETADAS]]&gt;0, _xlfn.XLOOKUP(Tabela5[[#This Row],[CARREIRA]],Dados_Brutos!#REF!,Dados_Brutos!G:G,"Sem dados",0,-1),"Sem dados")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C08CFEAF-FD69-486E-88C5-45B60413B062}" name="CLUSTER MAIS AFETADO" dataDxfId="825">
+    <tableColumn id="5" xr3:uid="{C08CFEAF-FD69-486E-88C5-45B60413B062}" name="CLUSTER MAIS AFETADO" dataDxfId="330">
       <calculatedColumnFormula>IF(Tabela5[[#This Row],[TURBINAS AFETADAS]]&gt;0, _xlfn.XLOOKUP(Tabela5[[#This Row],[CARREIRA]],Dados_Brutos!#REF!,Dados_Brutos!C:C,"Sem dados",0,-1),"Sem dados")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1376565-CE56-40C2-8923-146311C65F95}" name="PRIORIDADE MANUTENCAO" dataDxfId="824">
+    <tableColumn id="6" xr3:uid="{C1376565-CE56-40C2-8923-146311C65F95}" name="PRIORIDADE MANUTENCAO" dataDxfId="329">
       <calculatedColumnFormula>IF(AND(B2&gt;5,C2&gt;20),"🔴 ALTA",IF(AND(B2&gt;3,C2&gt;10),"🟡 MÉDIA","🟢 BAIXA"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AD0F09AC-3679-44B4-9465-A72487AE7BD4}" name="CUSTO TOTAL" dataDxfId="823" dataCellStyle="Moeda">
+    <tableColumn id="7" xr3:uid="{AD0F09AC-3679-44B4-9465-A72487AE7BD4}" name="CUSTO TOTAL" dataDxfId="328" dataCellStyle="Moeda">
       <calculatedColumnFormula>C2*Config!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{50C8D200-4BC8-41B5-AF8C-08CC97A67DC5}" name="INDICE FALHA" dataDxfId="822">
+    <tableColumn id="8" xr3:uid="{50C8D200-4BC8-41B5-AF8C-08CC97A67DC5}" name="INDICE FALHA" dataDxfId="327">
       <calculatedColumnFormula>IF(B2&gt;0,C2/B2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12466,201 +9000,201 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{30BAEB49-21FE-4E38-BF21-643AB0F5B3E2}" name="Tabela16" displayName="Tabela16" ref="A1:EA132" totalsRowShown="0" headerRowDxfId="409" headerRowBorderDxfId="407" tableBorderDxfId="408" totalsRowBorderDxfId="406">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{30BAEB49-21FE-4E38-BF21-643AB0F5B3E2}" name="Tabela16" displayName="Tabela16" ref="A1:EA132" totalsRowShown="0" headerRowDxfId="326" headerRowBorderDxfId="325" tableBorderDxfId="324" totalsRowBorderDxfId="323">
   <autoFilter ref="A1:EA132" xr:uid="{30BAEB49-21FE-4E38-BF21-643AB0F5B3E2}"/>
   <tableColumns count="131">
-    <tableColumn id="1" xr3:uid="{1E3CD7E3-7476-43EE-B140-8EDC1338FFEE}" name="DATA INSPECAO" dataDxfId="405"/>
-    <tableColumn id="2" xr3:uid="{6C056C4A-3D91-4CF5-90BA-F5952B5369A1}" name="OS" dataDxfId="404"/>
-    <tableColumn id="3" xr3:uid="{C78FB6ED-A5BC-4832-979C-EDB082C435E9}" name="CLUSTER" dataDxfId="403"/>
-    <tableColumn id="4" xr3:uid="{F0A2E95B-85DD-4839-9D61-BE56F3BBA525}" name="TURBINA" dataDxfId="402"/>
-    <tableColumn id="5" xr3:uid="{B09C671B-363B-4459-ADBF-0DF2C3484C3B}" name="QTD IMAS TROCADOS" dataDxfId="401"/>
-    <tableColumn id="126" xr3:uid="{9E260392-AD7F-462A-982E-51515694F783}" name="CICLO INSPECAO" dataDxfId="400"/>
-    <tableColumn id="127" xr3:uid="{AA1E42C8-B8B5-41DF-A634-08CF2CF22110}" name="Qtd. Carreiras/ 1º Ciclo" dataDxfId="399">
+    <tableColumn id="1" xr3:uid="{1E3CD7E3-7476-43EE-B140-8EDC1338FFEE}" name="DATA INSPECAO" dataDxfId="322"/>
+    <tableColumn id="2" xr3:uid="{6C056C4A-3D91-4CF5-90BA-F5952B5369A1}" name="OS" dataDxfId="321"/>
+    <tableColumn id="3" xr3:uid="{C78FB6ED-A5BC-4832-979C-EDB082C435E9}" name="CLUSTER" dataDxfId="320"/>
+    <tableColumn id="4" xr3:uid="{F0A2E95B-85DD-4839-9D61-BE56F3BBA525}" name="TURBINA" dataDxfId="319"/>
+    <tableColumn id="5" xr3:uid="{B09C671B-363B-4459-ADBF-0DF2C3484C3B}" name="QTD IMAS TROCADOS" dataDxfId="318"/>
+    <tableColumn id="126" xr3:uid="{9E260392-AD7F-462A-982E-51515694F783}" name="CICLO INSPECAO" dataDxfId="317"/>
+    <tableColumn id="127" xr3:uid="{AA1E42C8-B8B5-41DF-A634-08CF2CF22110}" name="Qtd. Carreiras/ 1º Ciclo" dataDxfId="316">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="128" xr3:uid="{BB2BF97E-E0B4-4F60-A3FA-AAF7AD9126B8}" name="Qtd. Carreiras/ 2º Ciclo" dataDxfId="398">
+    <tableColumn id="128" xr3:uid="{BB2BF97E-E0B4-4F60-A3FA-AAF7AD9126B8}" name="Qtd. Carreiras/ 2º Ciclo" dataDxfId="315">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="129" xr3:uid="{2F09B45A-9216-4B5F-AFE2-029F89DCA370}" name="Qtd. Carreiras/ 3º Ciclo" dataDxfId="397">
+    <tableColumn id="129" xr3:uid="{2F09B45A-9216-4B5F-AFE2-029F89DCA370}" name="Qtd. Carreiras/ 3º Ciclo" dataDxfId="314">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="132" xr3:uid="{AE1743E7-5FAC-45B7-8CE7-A39DEDDDD828}" name="Qtd. Carreiras/ 4º Ciclo" dataDxfId="0">
+    <tableColumn id="132" xr3:uid="{AE1743E7-5FAC-45B7-8CE7-A39DEDDDD828}" name="Qtd. Carreiras/ 4º Ciclo" dataDxfId="313">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="130" xr3:uid="{553D7961-5EB6-400B-B034-C7F72A2C2A8C}" name="Troca de Spindle" dataDxfId="396">
+    <tableColumn id="130" xr3:uid="{553D7961-5EB6-400B-B034-C7F72A2C2A8C}" name="Troca de Spindle" dataDxfId="312">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4525EA52-EECC-4DCF-BB3D-CAFB139FDFFF}" name="C-01" dataDxfId="395"/>
-    <tableColumn id="7" xr3:uid="{F1037BD1-6617-4FFB-AEF2-C4B16031ACCA}" name="C-02" dataDxfId="394"/>
-    <tableColumn id="8" xr3:uid="{30B6BBCF-CCB1-4010-BFAB-6EF6AAFDA9A1}" name="C-03" dataDxfId="393"/>
-    <tableColumn id="9" xr3:uid="{0C0777FB-CFE7-47B0-90BB-E2E8A11E2FA5}" name="C-04" dataDxfId="392"/>
-    <tableColumn id="10" xr3:uid="{0F7B80A8-7439-447D-BF73-779B815C6BE3}" name="C-05" dataDxfId="391"/>
-    <tableColumn id="11" xr3:uid="{B0F63778-6020-434F-BA1C-9AABD208237E}" name="C-06" dataDxfId="390"/>
-    <tableColumn id="12" xr3:uid="{CD536FFE-5B55-428A-B08B-1F7A1DBC0D79}" name="C-07" dataDxfId="389"/>
-    <tableColumn id="13" xr3:uid="{C7CEFA12-EC4E-4B6E-A188-3E5A29C81519}" name="C-08" dataDxfId="388"/>
-    <tableColumn id="14" xr3:uid="{DBE5DEBC-9D4B-428E-8699-AB686EBDDD35}" name="C-09" dataDxfId="387"/>
-    <tableColumn id="15" xr3:uid="{1E5AD952-F0C1-4CDC-88C0-E30A37358E0D}" name="C-10" dataDxfId="386"/>
-    <tableColumn id="16" xr3:uid="{2F96F186-C909-4625-95B8-F26CA85AD234}" name="C-11" dataDxfId="385"/>
-    <tableColumn id="17" xr3:uid="{E8BA372C-6CA2-4BBA-A1A1-685764E379FE}" name="C-12" dataDxfId="384"/>
-    <tableColumn id="18" xr3:uid="{A360CA1F-3EE6-4966-BA0F-CCFA4B55B3B0}" name="C-13" dataDxfId="383"/>
-    <tableColumn id="19" xr3:uid="{AA7D4DD5-04FC-45E9-AC8C-B5EF1B7249BA}" name="C-14" dataDxfId="382"/>
-    <tableColumn id="20" xr3:uid="{30FB6A68-25E0-47E9-9C04-EC5306A0C66A}" name="C-15" dataDxfId="381"/>
-    <tableColumn id="21" xr3:uid="{F46C867C-14C7-4EB9-9460-01683F5F3210}" name="C-16" dataDxfId="380"/>
-    <tableColumn id="22" xr3:uid="{81E31816-BD00-4595-8ECE-A6E2508B06D8}" name="C-17" dataDxfId="379"/>
-    <tableColumn id="23" xr3:uid="{1AEE4684-2918-49C3-958C-9B54604BF700}" name="C-18" dataDxfId="378"/>
-    <tableColumn id="24" xr3:uid="{8247D39A-9B8B-4E4A-8873-EBA3D27F2C7C}" name="C-19" dataDxfId="377"/>
-    <tableColumn id="25" xr3:uid="{8D9C0BBF-4D68-4BC9-82ED-4B6334CD1B12}" name="C-20" dataDxfId="376"/>
-    <tableColumn id="26" xr3:uid="{57A2D3C8-29E1-4177-AE14-2DD60CF4B74F}" name="C-21" dataDxfId="375"/>
-    <tableColumn id="27" xr3:uid="{1728B4CE-8E2B-4E4F-ADC3-51B8B17CFD47}" name="C-22" dataDxfId="374"/>
-    <tableColumn id="28" xr3:uid="{10ABD968-C536-4AD8-A646-6AF2BBB8B860}" name="C-23" dataDxfId="373"/>
-    <tableColumn id="29" xr3:uid="{36548FC7-0918-4B60-A7D1-D2C534772B95}" name="C-24" dataDxfId="372"/>
-    <tableColumn id="30" xr3:uid="{2CD6028D-6E9C-4650-A667-5C551EFB9B81}" name="C-25" dataDxfId="371"/>
-    <tableColumn id="31" xr3:uid="{FD8FF189-4CE3-45EC-8D54-8B13425CE252}" name="C-26" dataDxfId="370"/>
-    <tableColumn id="32" xr3:uid="{74D07901-2D65-4EA7-A835-10D33AC6BFBD}" name="C-27" dataDxfId="369"/>
-    <tableColumn id="33" xr3:uid="{A53048E7-14C5-4006-9DCF-1E18F612C4ED}" name="C-28" dataDxfId="368"/>
-    <tableColumn id="34" xr3:uid="{755CF4E0-B944-47D4-ACFD-DBA1F7C00A61}" name="C-29" dataDxfId="367"/>
-    <tableColumn id="35" xr3:uid="{360C1791-AC1F-47A8-8702-E2F3A66F9FF8}" name="C-30" dataDxfId="366"/>
-    <tableColumn id="36" xr3:uid="{A0F76110-4881-4C67-AC30-65135C303D4E}" name="C-31" dataDxfId="365"/>
-    <tableColumn id="37" xr3:uid="{8BC4A6F5-B63F-43B0-9EDB-5FB77277D544}" name="C-32" dataDxfId="364"/>
-    <tableColumn id="38" xr3:uid="{12F0BA77-5A11-44EA-92B7-512548FB2EFD}" name="C-33" dataDxfId="363"/>
-    <tableColumn id="39" xr3:uid="{7655F25B-DB39-4AC1-86D9-BDD3AE373656}" name="C-34" dataDxfId="362"/>
-    <tableColumn id="40" xr3:uid="{F2EFAF9B-15F6-499D-B9CE-D9CDB6F77E2E}" name="C-35" dataDxfId="361"/>
-    <tableColumn id="41" xr3:uid="{36CAF285-CCAD-4BA7-8925-AA9E1CCE9078}" name="C-36" dataDxfId="360"/>
-    <tableColumn id="42" xr3:uid="{CEC668A2-EFFA-4604-A1E3-DB04298D0C96}" name="C-37" dataDxfId="359"/>
-    <tableColumn id="43" xr3:uid="{129B89F5-11D6-48A9-B3E0-BC889A31FC7B}" name="C-38" dataDxfId="358"/>
-    <tableColumn id="44" xr3:uid="{047E8EEC-DA40-4F78-A080-1FCE2E049787}" name="C-39" dataDxfId="357"/>
-    <tableColumn id="45" xr3:uid="{0D47CA6C-00EB-416F-A908-E2AA57996F0D}" name="C-40" dataDxfId="356"/>
-    <tableColumn id="46" xr3:uid="{42671B9B-BA8C-4E3E-A22A-535379A95098}" name="C-41" dataDxfId="355"/>
-    <tableColumn id="47" xr3:uid="{91A87D68-F792-4545-AE49-0E0171156C96}" name="C-42" dataDxfId="354"/>
-    <tableColumn id="48" xr3:uid="{9F88BD81-D1CE-438D-90FC-BD692971D7D2}" name="C-43" dataDxfId="353"/>
-    <tableColumn id="49" xr3:uid="{4F0A2F55-A6E4-42DE-8D9C-8F7784ABE620}" name="C-44" dataDxfId="352"/>
-    <tableColumn id="50" xr3:uid="{8F3FEB23-FF2D-4937-A5DF-E65ED2C8CDA9}" name="C-45" dataDxfId="351"/>
-    <tableColumn id="51" xr3:uid="{157A48F8-8368-4367-A03F-C7F7A25CBE24}" name="C-46" dataDxfId="350"/>
-    <tableColumn id="52" xr3:uid="{106CB715-37C0-43ED-99EA-52D9FE2B4BDF}" name="C-47" dataDxfId="349"/>
-    <tableColumn id="53" xr3:uid="{6A08F279-010A-42AA-9FC6-00139C4A8795}" name="C-48" dataDxfId="348"/>
-    <tableColumn id="54" xr3:uid="{CE96CB82-F87E-491E-A2E2-D1451ADAF953}" name="C-49" dataDxfId="347"/>
-    <tableColumn id="55" xr3:uid="{A8C96A6F-90E7-4E9F-B42E-65C1966ADE02}" name="C-50" dataDxfId="346"/>
-    <tableColumn id="56" xr3:uid="{30BC612B-F1FC-43DC-BC81-E45F434FEA82}" name="C-51" dataDxfId="345"/>
-    <tableColumn id="57" xr3:uid="{38E28D40-F4CA-43D2-923D-924C4EB7DE32}" name="C-52" dataDxfId="344"/>
-    <tableColumn id="58" xr3:uid="{FE290B1E-192F-4576-819C-2F6CEE221F28}" name="C-53" dataDxfId="343"/>
-    <tableColumn id="59" xr3:uid="{9FC97CC4-D5C9-41EC-82B5-BC8A961B42BD}" name="C-54" dataDxfId="342"/>
-    <tableColumn id="60" xr3:uid="{225C3698-92B1-4B7A-AE07-455700FD1BBE}" name="C-55" dataDxfId="341"/>
-    <tableColumn id="61" xr3:uid="{228C8A38-2EA1-46EF-9BA4-D95EA739C35D}" name="C-56" dataDxfId="340"/>
-    <tableColumn id="62" xr3:uid="{5A686B73-6DE4-4588-B8F0-8E7F9856F414}" name="C-57" dataDxfId="339"/>
-    <tableColumn id="63" xr3:uid="{C276D94A-1CDE-43D9-9ADD-101B92D42E59}" name="C-58" dataDxfId="338"/>
-    <tableColumn id="64" xr3:uid="{47371603-84DE-4AA4-B6AD-43FAE08D53BB}" name="C-59" dataDxfId="337"/>
-    <tableColumn id="65" xr3:uid="{A47927A6-A1AF-4865-B49E-67C83CB81209}" name="C-60" dataDxfId="336"/>
-    <tableColumn id="66" xr3:uid="{B0F0AD28-8048-4E78-BEAD-855F65A3CC4A}" name="C-61" dataDxfId="335"/>
-    <tableColumn id="67" xr3:uid="{BA6B9A2F-3861-4E40-A6E9-4F5CC67D0154}" name="C-62" dataDxfId="334"/>
-    <tableColumn id="68" xr3:uid="{FD6405C4-DF8E-4907-BC51-FC27703625BA}" name="C-63" dataDxfId="333"/>
-    <tableColumn id="69" xr3:uid="{48828535-5D46-487A-93E9-331F0D4BF0DC}" name="C-64" dataDxfId="332"/>
-    <tableColumn id="70" xr3:uid="{85B1F667-83D9-4D34-A02E-E095C7F34209}" name="C-65" dataDxfId="331"/>
-    <tableColumn id="71" xr3:uid="{F97FB1BF-6416-4520-9CA5-A17855A2434C}" name="C-66" dataDxfId="330"/>
-    <tableColumn id="72" xr3:uid="{59FB3DE8-E40B-47ED-A0E0-B130617FEA91}" name="C-67" dataDxfId="329"/>
-    <tableColumn id="73" xr3:uid="{97B699D1-14D3-4E6C-9BBF-34DAAD400F62}" name="C-68" dataDxfId="328"/>
-    <tableColumn id="74" xr3:uid="{7CDC08E8-4311-4C53-8B52-A59AFCD6D74E}" name="C-69" dataDxfId="327"/>
-    <tableColumn id="75" xr3:uid="{27EB0B24-8677-423F-BEB1-F3EBAF258673}" name="C-70" dataDxfId="326"/>
-    <tableColumn id="76" xr3:uid="{13E72FCA-84ED-4061-A3ED-75304B27BF30}" name="C-71" dataDxfId="325"/>
-    <tableColumn id="77" xr3:uid="{78A15910-4C37-4E3F-A49D-FE0E0615B443}" name="C-72" dataDxfId="324"/>
-    <tableColumn id="78" xr3:uid="{25811A3A-944F-4FE7-8AA9-4C185EEAD8C1}" name="C-73" dataDxfId="323"/>
-    <tableColumn id="79" xr3:uid="{5BE88D9D-B8C6-4CEE-A950-79B902427F14}" name="C-74" dataDxfId="322"/>
-    <tableColumn id="80" xr3:uid="{2DE198BF-809D-4F32-9032-EB18FB8326E6}" name="C-75" dataDxfId="321"/>
-    <tableColumn id="81" xr3:uid="{77C855E8-0CE0-4FA5-9852-931701F78F7B}" name="C-76" dataDxfId="320"/>
-    <tableColumn id="82" xr3:uid="{C3935066-1C8E-4BEC-B36E-AB73FD5B2A22}" name="C-77" dataDxfId="319"/>
-    <tableColumn id="83" xr3:uid="{F9490B6B-A505-416C-AAC6-BDD8F7C9F400}" name="C-78" dataDxfId="318"/>
-    <tableColumn id="84" xr3:uid="{64F46BAB-47AD-445C-8CD3-8CC4BFFE4977}" name="C-79" dataDxfId="317"/>
-    <tableColumn id="85" xr3:uid="{B7AC33CD-842A-4CE7-97BC-87052B10F6EA}" name="C-80" dataDxfId="316"/>
-    <tableColumn id="86" xr3:uid="{27B9F7CE-50F2-43CA-8F58-8458E2AA4229}" name="C-81" dataDxfId="315"/>
-    <tableColumn id="87" xr3:uid="{49D00B04-99CE-4685-9BC7-19450FA63C5C}" name="C-82" dataDxfId="314"/>
-    <tableColumn id="88" xr3:uid="{FD254C47-9AA4-495E-AEB8-47D924D23AE8}" name="C-83" dataDxfId="313"/>
-    <tableColumn id="89" xr3:uid="{40BE2D9E-76D2-44F3-8E54-D16EB6C0342B}" name="C-84" dataDxfId="312"/>
-    <tableColumn id="90" xr3:uid="{65FEA68D-11FD-4576-98E8-4CC479F9F093}" name="C-85" dataDxfId="311"/>
-    <tableColumn id="91" xr3:uid="{3243D337-FC48-4C20-B535-F65F1BC274D5}" name="C-86" dataDxfId="310"/>
-    <tableColumn id="92" xr3:uid="{BFD5B7F0-9557-47D3-B8CB-B45534734622}" name="C-87" dataDxfId="309"/>
-    <tableColumn id="93" xr3:uid="{19E63382-6DF9-4683-9E6C-1BA07BC04202}" name="C-88" dataDxfId="308"/>
-    <tableColumn id="94" xr3:uid="{F0999BD1-D829-41FA-9159-268E4D72D179}" name="C-89" dataDxfId="307"/>
-    <tableColumn id="95" xr3:uid="{0D2968D3-601A-447A-A93F-C97B6B3DDEBA}" name="C-90" dataDxfId="306"/>
-    <tableColumn id="96" xr3:uid="{733C9564-811A-4DCA-B792-A0C89FDE130B}" name="C-91" dataDxfId="305"/>
-    <tableColumn id="97" xr3:uid="{3C4F702A-FD5D-41ED-AC71-20B462095DFE}" name="C-92" dataDxfId="304"/>
-    <tableColumn id="98" xr3:uid="{0B7ED0F4-5BE2-4C22-B54B-0E8DAE7975DE}" name="C-93" dataDxfId="303"/>
-    <tableColumn id="99" xr3:uid="{2482D4CC-4F20-4A71-BFA5-FAC4657BC229}" name="C-94" dataDxfId="302"/>
-    <tableColumn id="100" xr3:uid="{A8EF3E7B-008D-42D3-BBEF-2C16202E79C7}" name="C-95" dataDxfId="301"/>
-    <tableColumn id="101" xr3:uid="{A8C5499B-6506-4FFA-872A-4277F55F0079}" name="C-96" dataDxfId="300"/>
-    <tableColumn id="102" xr3:uid="{CFE6F6EE-A9FD-4592-802B-98EC620A322C}" name="C-97" dataDxfId="299"/>
-    <tableColumn id="103" xr3:uid="{03ED99E1-8F27-4392-9315-9FD0AA7CF3D8}" name="C-98" dataDxfId="298"/>
-    <tableColumn id="104" xr3:uid="{2AF79A86-9E56-4EB1-8A29-3D0B9A6E5D50}" name="C-99" dataDxfId="297"/>
-    <tableColumn id="105" xr3:uid="{2615F5EB-9214-49A6-8DAA-1AD5DCEB2D33}" name="C-100" dataDxfId="296"/>
-    <tableColumn id="106" xr3:uid="{13D02E34-3A3B-402E-80F7-469FBB1429D9}" name="C-101" dataDxfId="295"/>
-    <tableColumn id="107" xr3:uid="{AB1231A6-9540-45E8-82A4-15035AD29008}" name="C-102" dataDxfId="294"/>
-    <tableColumn id="108" xr3:uid="{1C32F6A5-DEC8-4E83-BAD8-D7689205EF52}" name="C-103" dataDxfId="293"/>
-    <tableColumn id="109" xr3:uid="{6BAFD612-B87D-4CFD-9262-DEA5C3C48B46}" name="C-104" dataDxfId="292"/>
-    <tableColumn id="110" xr3:uid="{1559CE7F-4A42-449B-BE10-9C9B63752698}" name="C-105" dataDxfId="291"/>
-    <tableColumn id="111" xr3:uid="{C986BAE4-09A7-4B73-AE0E-80700FA03F1E}" name="C-106" dataDxfId="290"/>
-    <tableColumn id="112" xr3:uid="{2228C9BB-7681-40F3-8CD1-9C4F1F67AE87}" name="C-107" dataDxfId="289"/>
-    <tableColumn id="113" xr3:uid="{9EFB4620-D5D6-456E-897E-65FFAB2AB692}" name="C-108" dataDxfId="288"/>
-    <tableColumn id="114" xr3:uid="{84E2E353-9E47-49AA-9CD9-A0825FF5533E}" name="C-109" dataDxfId="287"/>
-    <tableColumn id="115" xr3:uid="{6554A34A-E2C1-422A-9A6B-DB811B2642D4}" name="C-110" dataDxfId="286"/>
-    <tableColumn id="116" xr3:uid="{78A950B8-25CA-4A35-A716-CBBDB73931C6}" name="C-111" dataDxfId="285"/>
-    <tableColumn id="117" xr3:uid="{52FD765C-F831-4DE3-AD7C-322E553295B9}" name="C-112" dataDxfId="284"/>
-    <tableColumn id="118" xr3:uid="{6B16D643-51F1-49BD-9055-88DB7634F6DC}" name="C-113" dataDxfId="283"/>
-    <tableColumn id="119" xr3:uid="{2B73ADB2-BDE6-4B39-95FA-EAAA6682FCD1}" name="C-114" dataDxfId="282"/>
-    <tableColumn id="120" xr3:uid="{806AE120-B9E1-4E46-BA71-E2998D8E06F6}" name="C-115" dataDxfId="281"/>
-    <tableColumn id="121" xr3:uid="{9E18297B-0D87-4363-842B-389E6BFDD1B5}" name="C-116" dataDxfId="280"/>
-    <tableColumn id="122" xr3:uid="{2FDB23DD-E319-4B51-9CA5-1A43C898DC9F}" name="C-117" dataDxfId="279"/>
-    <tableColumn id="123" xr3:uid="{87DE9216-9CB9-4901-9FA3-230800708D5F}" name="C-118" dataDxfId="278"/>
-    <tableColumn id="124" xr3:uid="{4ADC9E64-780E-4629-86CF-BADE38127D80}" name="C-119" dataDxfId="277"/>
-    <tableColumn id="125" xr3:uid="{4D9B64ED-436E-499A-A5F3-9905886DDB1C}" name="C-120" dataDxfId="276"/>
+    <tableColumn id="6" xr3:uid="{4525EA52-EECC-4DCF-BB3D-CAFB139FDFFF}" name="C-01" dataDxfId="311"/>
+    <tableColumn id="7" xr3:uid="{F1037BD1-6617-4FFB-AEF2-C4B16031ACCA}" name="C-02" dataDxfId="310"/>
+    <tableColumn id="8" xr3:uid="{30B6BBCF-CCB1-4010-BFAB-6EF6AAFDA9A1}" name="C-03" dataDxfId="309"/>
+    <tableColumn id="9" xr3:uid="{0C0777FB-CFE7-47B0-90BB-E2E8A11E2FA5}" name="C-04" dataDxfId="308"/>
+    <tableColumn id="10" xr3:uid="{0F7B80A8-7439-447D-BF73-779B815C6BE3}" name="C-05" dataDxfId="307"/>
+    <tableColumn id="11" xr3:uid="{B0F63778-6020-434F-BA1C-9AABD208237E}" name="C-06" dataDxfId="306"/>
+    <tableColumn id="12" xr3:uid="{CD536FFE-5B55-428A-B08B-1F7A1DBC0D79}" name="C-07" dataDxfId="305"/>
+    <tableColumn id="13" xr3:uid="{C7CEFA12-EC4E-4B6E-A188-3E5A29C81519}" name="C-08" dataDxfId="304"/>
+    <tableColumn id="14" xr3:uid="{DBE5DEBC-9D4B-428E-8699-AB686EBDDD35}" name="C-09" dataDxfId="303"/>
+    <tableColumn id="15" xr3:uid="{1E5AD952-F0C1-4CDC-88C0-E30A37358E0D}" name="C-10" dataDxfId="302"/>
+    <tableColumn id="16" xr3:uid="{2F96F186-C909-4625-95B8-F26CA85AD234}" name="C-11" dataDxfId="301"/>
+    <tableColumn id="17" xr3:uid="{E8BA372C-6CA2-4BBA-A1A1-685764E379FE}" name="C-12" dataDxfId="300"/>
+    <tableColumn id="18" xr3:uid="{A360CA1F-3EE6-4966-BA0F-CCFA4B55B3B0}" name="C-13" dataDxfId="299"/>
+    <tableColumn id="19" xr3:uid="{AA7D4DD5-04FC-45E9-AC8C-B5EF1B7249BA}" name="C-14" dataDxfId="298"/>
+    <tableColumn id="20" xr3:uid="{30FB6A68-25E0-47E9-9C04-EC5306A0C66A}" name="C-15" dataDxfId="297"/>
+    <tableColumn id="21" xr3:uid="{F46C867C-14C7-4EB9-9460-01683F5F3210}" name="C-16" dataDxfId="296"/>
+    <tableColumn id="22" xr3:uid="{81E31816-BD00-4595-8ECE-A6E2508B06D8}" name="C-17" dataDxfId="295"/>
+    <tableColumn id="23" xr3:uid="{1AEE4684-2918-49C3-958C-9B54604BF700}" name="C-18" dataDxfId="294"/>
+    <tableColumn id="24" xr3:uid="{8247D39A-9B8B-4E4A-8873-EBA3D27F2C7C}" name="C-19" dataDxfId="293"/>
+    <tableColumn id="25" xr3:uid="{8D9C0BBF-4D68-4BC9-82ED-4B6334CD1B12}" name="C-20" dataDxfId="292"/>
+    <tableColumn id="26" xr3:uid="{57A2D3C8-29E1-4177-AE14-2DD60CF4B74F}" name="C-21" dataDxfId="291"/>
+    <tableColumn id="27" xr3:uid="{1728B4CE-8E2B-4E4F-ADC3-51B8B17CFD47}" name="C-22" dataDxfId="290"/>
+    <tableColumn id="28" xr3:uid="{10ABD968-C536-4AD8-A646-6AF2BBB8B860}" name="C-23" dataDxfId="289"/>
+    <tableColumn id="29" xr3:uid="{36548FC7-0918-4B60-A7D1-D2C534772B95}" name="C-24" dataDxfId="288"/>
+    <tableColumn id="30" xr3:uid="{2CD6028D-6E9C-4650-A667-5C551EFB9B81}" name="C-25" dataDxfId="287"/>
+    <tableColumn id="31" xr3:uid="{FD8FF189-4CE3-45EC-8D54-8B13425CE252}" name="C-26" dataDxfId="286"/>
+    <tableColumn id="32" xr3:uid="{74D07901-2D65-4EA7-A835-10D33AC6BFBD}" name="C-27" dataDxfId="285"/>
+    <tableColumn id="33" xr3:uid="{A53048E7-14C5-4006-9DCF-1E18F612C4ED}" name="C-28" dataDxfId="284"/>
+    <tableColumn id="34" xr3:uid="{755CF4E0-B944-47D4-ACFD-DBA1F7C00A61}" name="C-29" dataDxfId="283"/>
+    <tableColumn id="35" xr3:uid="{360C1791-AC1F-47A8-8702-E2F3A66F9FF8}" name="C-30" dataDxfId="282"/>
+    <tableColumn id="36" xr3:uid="{A0F76110-4881-4C67-AC30-65135C303D4E}" name="C-31" dataDxfId="281"/>
+    <tableColumn id="37" xr3:uid="{8BC4A6F5-B63F-43B0-9EDB-5FB77277D544}" name="C-32" dataDxfId="280"/>
+    <tableColumn id="38" xr3:uid="{12F0BA77-5A11-44EA-92B7-512548FB2EFD}" name="C-33" dataDxfId="279"/>
+    <tableColumn id="39" xr3:uid="{7655F25B-DB39-4AC1-86D9-BDD3AE373656}" name="C-34" dataDxfId="278"/>
+    <tableColumn id="40" xr3:uid="{F2EFAF9B-15F6-499D-B9CE-D9CDB6F77E2E}" name="C-35" dataDxfId="277"/>
+    <tableColumn id="41" xr3:uid="{36CAF285-CCAD-4BA7-8925-AA9E1CCE9078}" name="C-36" dataDxfId="276"/>
+    <tableColumn id="42" xr3:uid="{CEC668A2-EFFA-4604-A1E3-DB04298D0C96}" name="C-37" dataDxfId="275"/>
+    <tableColumn id="43" xr3:uid="{129B89F5-11D6-48A9-B3E0-BC889A31FC7B}" name="C-38" dataDxfId="274"/>
+    <tableColumn id="44" xr3:uid="{047E8EEC-DA40-4F78-A080-1FCE2E049787}" name="C-39" dataDxfId="273"/>
+    <tableColumn id="45" xr3:uid="{0D47CA6C-00EB-416F-A908-E2AA57996F0D}" name="C-40" dataDxfId="272"/>
+    <tableColumn id="46" xr3:uid="{42671B9B-BA8C-4E3E-A22A-535379A95098}" name="C-41" dataDxfId="271"/>
+    <tableColumn id="47" xr3:uid="{91A87D68-F792-4545-AE49-0E0171156C96}" name="C-42" dataDxfId="270"/>
+    <tableColumn id="48" xr3:uid="{9F88BD81-D1CE-438D-90FC-BD692971D7D2}" name="C-43" dataDxfId="269"/>
+    <tableColumn id="49" xr3:uid="{4F0A2F55-A6E4-42DE-8D9C-8F7784ABE620}" name="C-44" dataDxfId="268"/>
+    <tableColumn id="50" xr3:uid="{8F3FEB23-FF2D-4937-A5DF-E65ED2C8CDA9}" name="C-45" dataDxfId="267"/>
+    <tableColumn id="51" xr3:uid="{157A48F8-8368-4367-A03F-C7F7A25CBE24}" name="C-46" dataDxfId="266"/>
+    <tableColumn id="52" xr3:uid="{106CB715-37C0-43ED-99EA-52D9FE2B4BDF}" name="C-47" dataDxfId="265"/>
+    <tableColumn id="53" xr3:uid="{6A08F279-010A-42AA-9FC6-00139C4A8795}" name="C-48" dataDxfId="264"/>
+    <tableColumn id="54" xr3:uid="{CE96CB82-F87E-491E-A2E2-D1451ADAF953}" name="C-49" dataDxfId="263"/>
+    <tableColumn id="55" xr3:uid="{A8C96A6F-90E7-4E9F-B42E-65C1966ADE02}" name="C-50" dataDxfId="262"/>
+    <tableColumn id="56" xr3:uid="{30BC612B-F1FC-43DC-BC81-E45F434FEA82}" name="C-51" dataDxfId="261"/>
+    <tableColumn id="57" xr3:uid="{38E28D40-F4CA-43D2-923D-924C4EB7DE32}" name="C-52" dataDxfId="260"/>
+    <tableColumn id="58" xr3:uid="{FE290B1E-192F-4576-819C-2F6CEE221F28}" name="C-53" dataDxfId="259"/>
+    <tableColumn id="59" xr3:uid="{9FC97CC4-D5C9-41EC-82B5-BC8A961B42BD}" name="C-54" dataDxfId="258"/>
+    <tableColumn id="60" xr3:uid="{225C3698-92B1-4B7A-AE07-455700FD1BBE}" name="C-55" dataDxfId="257"/>
+    <tableColumn id="61" xr3:uid="{228C8A38-2EA1-46EF-9BA4-D95EA739C35D}" name="C-56" dataDxfId="256"/>
+    <tableColumn id="62" xr3:uid="{5A686B73-6DE4-4588-B8F0-8E7F9856F414}" name="C-57" dataDxfId="255"/>
+    <tableColumn id="63" xr3:uid="{C276D94A-1CDE-43D9-9ADD-101B92D42E59}" name="C-58" dataDxfId="254"/>
+    <tableColumn id="64" xr3:uid="{47371603-84DE-4AA4-B6AD-43FAE08D53BB}" name="C-59" dataDxfId="253"/>
+    <tableColumn id="65" xr3:uid="{A47927A6-A1AF-4865-B49E-67C83CB81209}" name="C-60" dataDxfId="252"/>
+    <tableColumn id="66" xr3:uid="{B0F0AD28-8048-4E78-BEAD-855F65A3CC4A}" name="C-61" dataDxfId="251"/>
+    <tableColumn id="67" xr3:uid="{BA6B9A2F-3861-4E40-A6E9-4F5CC67D0154}" name="C-62" dataDxfId="250"/>
+    <tableColumn id="68" xr3:uid="{FD6405C4-DF8E-4907-BC51-FC27703625BA}" name="C-63" dataDxfId="249"/>
+    <tableColumn id="69" xr3:uid="{48828535-5D46-487A-93E9-331F0D4BF0DC}" name="C-64" dataDxfId="248"/>
+    <tableColumn id="70" xr3:uid="{85B1F667-83D9-4D34-A02E-E095C7F34209}" name="C-65" dataDxfId="247"/>
+    <tableColumn id="71" xr3:uid="{F97FB1BF-6416-4520-9CA5-A17855A2434C}" name="C-66" dataDxfId="246"/>
+    <tableColumn id="72" xr3:uid="{59FB3DE8-E40B-47ED-A0E0-B130617FEA91}" name="C-67" dataDxfId="245"/>
+    <tableColumn id="73" xr3:uid="{97B699D1-14D3-4E6C-9BBF-34DAAD400F62}" name="C-68" dataDxfId="244"/>
+    <tableColumn id="74" xr3:uid="{7CDC08E8-4311-4C53-8B52-A59AFCD6D74E}" name="C-69" dataDxfId="243"/>
+    <tableColumn id="75" xr3:uid="{27EB0B24-8677-423F-BEB1-F3EBAF258673}" name="C-70" dataDxfId="242"/>
+    <tableColumn id="76" xr3:uid="{13E72FCA-84ED-4061-A3ED-75304B27BF30}" name="C-71" dataDxfId="241"/>
+    <tableColumn id="77" xr3:uid="{78A15910-4C37-4E3F-A49D-FE0E0615B443}" name="C-72" dataDxfId="240"/>
+    <tableColumn id="78" xr3:uid="{25811A3A-944F-4FE7-8AA9-4C185EEAD8C1}" name="C-73" dataDxfId="239"/>
+    <tableColumn id="79" xr3:uid="{5BE88D9D-B8C6-4CEE-A950-79B902427F14}" name="C-74" dataDxfId="238"/>
+    <tableColumn id="80" xr3:uid="{2DE198BF-809D-4F32-9032-EB18FB8326E6}" name="C-75" dataDxfId="237"/>
+    <tableColumn id="81" xr3:uid="{77C855E8-0CE0-4FA5-9852-931701F78F7B}" name="C-76" dataDxfId="236"/>
+    <tableColumn id="82" xr3:uid="{C3935066-1C8E-4BEC-B36E-AB73FD5B2A22}" name="C-77" dataDxfId="235"/>
+    <tableColumn id="83" xr3:uid="{F9490B6B-A505-416C-AAC6-BDD8F7C9F400}" name="C-78" dataDxfId="234"/>
+    <tableColumn id="84" xr3:uid="{64F46BAB-47AD-445C-8CD3-8CC4BFFE4977}" name="C-79" dataDxfId="233"/>
+    <tableColumn id="85" xr3:uid="{B7AC33CD-842A-4CE7-97BC-87052B10F6EA}" name="C-80" dataDxfId="232"/>
+    <tableColumn id="86" xr3:uid="{27B9F7CE-50F2-43CA-8F58-8458E2AA4229}" name="C-81" dataDxfId="231"/>
+    <tableColumn id="87" xr3:uid="{49D00B04-99CE-4685-9BC7-19450FA63C5C}" name="C-82" dataDxfId="230"/>
+    <tableColumn id="88" xr3:uid="{FD254C47-9AA4-495E-AEB8-47D924D23AE8}" name="C-83" dataDxfId="229"/>
+    <tableColumn id="89" xr3:uid="{40BE2D9E-76D2-44F3-8E54-D16EB6C0342B}" name="C-84" dataDxfId="228"/>
+    <tableColumn id="90" xr3:uid="{65FEA68D-11FD-4576-98E8-4CC479F9F093}" name="C-85" dataDxfId="227"/>
+    <tableColumn id="91" xr3:uid="{3243D337-FC48-4C20-B535-F65F1BC274D5}" name="C-86" dataDxfId="226"/>
+    <tableColumn id="92" xr3:uid="{BFD5B7F0-9557-47D3-B8CB-B45534734622}" name="C-87" dataDxfId="225"/>
+    <tableColumn id="93" xr3:uid="{19E63382-6DF9-4683-9E6C-1BA07BC04202}" name="C-88" dataDxfId="224"/>
+    <tableColumn id="94" xr3:uid="{F0999BD1-D829-41FA-9159-268E4D72D179}" name="C-89" dataDxfId="223"/>
+    <tableColumn id="95" xr3:uid="{0D2968D3-601A-447A-A93F-C97B6B3DDEBA}" name="C-90" dataDxfId="222"/>
+    <tableColumn id="96" xr3:uid="{733C9564-811A-4DCA-B792-A0C89FDE130B}" name="C-91" dataDxfId="221"/>
+    <tableColumn id="97" xr3:uid="{3C4F702A-FD5D-41ED-AC71-20B462095DFE}" name="C-92" dataDxfId="220"/>
+    <tableColumn id="98" xr3:uid="{0B7ED0F4-5BE2-4C22-B54B-0E8DAE7975DE}" name="C-93" dataDxfId="219"/>
+    <tableColumn id="99" xr3:uid="{2482D4CC-4F20-4A71-BFA5-FAC4657BC229}" name="C-94" dataDxfId="218"/>
+    <tableColumn id="100" xr3:uid="{A8EF3E7B-008D-42D3-BBEF-2C16202E79C7}" name="C-95" dataDxfId="217"/>
+    <tableColumn id="101" xr3:uid="{A8C5499B-6506-4FFA-872A-4277F55F0079}" name="C-96" dataDxfId="216"/>
+    <tableColumn id="102" xr3:uid="{CFE6F6EE-A9FD-4592-802B-98EC620A322C}" name="C-97" dataDxfId="215"/>
+    <tableColumn id="103" xr3:uid="{03ED99E1-8F27-4392-9315-9FD0AA7CF3D8}" name="C-98" dataDxfId="214"/>
+    <tableColumn id="104" xr3:uid="{2AF79A86-9E56-4EB1-8A29-3D0B9A6E5D50}" name="C-99" dataDxfId="213"/>
+    <tableColumn id="105" xr3:uid="{2615F5EB-9214-49A6-8DAA-1AD5DCEB2D33}" name="C-100" dataDxfId="212"/>
+    <tableColumn id="106" xr3:uid="{13D02E34-3A3B-402E-80F7-469FBB1429D9}" name="C-101" dataDxfId="211"/>
+    <tableColumn id="107" xr3:uid="{AB1231A6-9540-45E8-82A4-15035AD29008}" name="C-102" dataDxfId="210"/>
+    <tableColumn id="108" xr3:uid="{1C32F6A5-DEC8-4E83-BAD8-D7689205EF52}" name="C-103" dataDxfId="209"/>
+    <tableColumn id="109" xr3:uid="{6BAFD612-B87D-4CFD-9262-DEA5C3C48B46}" name="C-104" dataDxfId="208"/>
+    <tableColumn id="110" xr3:uid="{1559CE7F-4A42-449B-BE10-9C9B63752698}" name="C-105" dataDxfId="207"/>
+    <tableColumn id="111" xr3:uid="{C986BAE4-09A7-4B73-AE0E-80700FA03F1E}" name="C-106" dataDxfId="206"/>
+    <tableColumn id="112" xr3:uid="{2228C9BB-7681-40F3-8CD1-9C4F1F67AE87}" name="C-107" dataDxfId="205"/>
+    <tableColumn id="113" xr3:uid="{9EFB4620-D5D6-456E-897E-65FFAB2AB692}" name="C-108" dataDxfId="204"/>
+    <tableColumn id="114" xr3:uid="{84E2E353-9E47-49AA-9CD9-A0825FF5533E}" name="C-109" dataDxfId="203"/>
+    <tableColumn id="115" xr3:uid="{6554A34A-E2C1-422A-9A6B-DB811B2642D4}" name="C-110" dataDxfId="202"/>
+    <tableColumn id="116" xr3:uid="{78A950B8-25CA-4A35-A716-CBBDB73931C6}" name="C-111" dataDxfId="201"/>
+    <tableColumn id="117" xr3:uid="{52FD765C-F831-4DE3-AD7C-322E553295B9}" name="C-112" dataDxfId="200"/>
+    <tableColumn id="118" xr3:uid="{6B16D643-51F1-49BD-9055-88DB7634F6DC}" name="C-113" dataDxfId="199"/>
+    <tableColumn id="119" xr3:uid="{2B73ADB2-BDE6-4B39-95FA-EAAA6682FCD1}" name="C-114" dataDxfId="198"/>
+    <tableColumn id="120" xr3:uid="{806AE120-B9E1-4E46-BA71-E2998D8E06F6}" name="C-115" dataDxfId="197"/>
+    <tableColumn id="121" xr3:uid="{9E18297B-0D87-4363-842B-389E6BFDD1B5}" name="C-116" dataDxfId="196"/>
+    <tableColumn id="122" xr3:uid="{2FDB23DD-E319-4B51-9CA5-1A43C898DC9F}" name="C-117" dataDxfId="195"/>
+    <tableColumn id="123" xr3:uid="{87DE9216-9CB9-4901-9FA3-230800708D5F}" name="C-118" dataDxfId="194"/>
+    <tableColumn id="124" xr3:uid="{4ADC9E64-780E-4629-86CF-BADE38127D80}" name="C-119" dataDxfId="193"/>
+    <tableColumn id="125" xr3:uid="{4D9B64ED-436E-499A-A5F3-9905886DDB1C}" name="C-120" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D5C92C2A-11F5-4518-9C4C-90BBFE057863}" name="Tabela12" displayName="Tabela12" ref="A1:J255" totalsRowShown="0" headerRowDxfId="821" dataDxfId="820">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D5C92C2A-11F5-4518-9C4C-90BBFE057863}" name="Tabela12" displayName="Tabela12" ref="A1:J255" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:J255" xr:uid="{D5C92C2A-11F5-4518-9C4C-90BBFE057863}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{727EFDCF-03B8-4C14-94FD-BE017A7CC15D}" name="Data inspeção" dataDxfId="819"/>
-    <tableColumn id="2" xr3:uid="{D81F9262-AA86-4D2F-AE6A-C57D59A4524B}" name="OS" dataDxfId="818"/>
-    <tableColumn id="3" xr3:uid="{B0258F1A-8AFE-4263-8FB2-22A05B3C6C73}" name="Cluster" dataDxfId="817"/>
-    <tableColumn id="4" xr3:uid="{9FDB4D6F-702F-4A02-BA49-FF512E98FEAA}" name="AEG" dataDxfId="816"/>
-    <tableColumn id="5" xr3:uid="{71A65E37-ED02-4B69-8206-9DB45A70F21D}" name="Qtd. Imas trocados" dataDxfId="815"/>
-    <tableColumn id="6" xr3:uid="{E63E8C36-9192-4660-8350-23D3C006A340}" name="Carreira" dataDxfId="814"/>
-    <tableColumn id="7" xr3:uid="{9417E691-2F9F-4C98-8C49-4CA4D24FDDC6}" name="Descrição" dataDxfId="813"/>
-    <tableColumn id="8" xr3:uid="{94F35B86-01D5-45CF-BA71-8F839E920CA6}" name="Ciclo de Inspeção" dataDxfId="812"/>
-    <tableColumn id="9" xr3:uid="{BC9224C6-D1AE-4692-9D51-007685B80085}" name="Status" dataDxfId="811"/>
-    <tableColumn id="10" xr3:uid="{BD9FDFDE-B5AD-495B-BF13-C7E8C7969692}" name="substituição" dataDxfId="810"/>
+    <tableColumn id="1" xr3:uid="{727EFDCF-03B8-4C14-94FD-BE017A7CC15D}" name="Data inspeção" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{D81F9262-AA86-4D2F-AE6A-C57D59A4524B}" name="OS" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{B0258F1A-8AFE-4263-8FB2-22A05B3C6C73}" name="Cluster" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{9FDB4D6F-702F-4A02-BA49-FF512E98FEAA}" name="AEG" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{71A65E37-ED02-4B69-8206-9DB45A70F21D}" name="Qtd. Imas trocados" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{E63E8C36-9192-4660-8350-23D3C006A340}" name="Carreira" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{9417E691-2F9F-4C98-8C49-4CA4D24FDDC6}" name="Descrição" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{94F35B86-01D5-45CF-BA71-8F839E920CA6}" name="Ciclo de Inspeção" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{BC9224C6-D1AE-4692-9D51-007685B80085}" name="Status" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{BD9FDFDE-B5AD-495B-BF13-C7E8C7969692}" name="substituição" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9499864F-AE6B-42CA-ABB2-DD363BD0936C}" name="Tabela11" displayName="Tabela11" ref="B1:J48" totalsRowShown="0" headerRowDxfId="809" headerRowBorderDxfId="808" tableBorderDxfId="807" totalsRowBorderDxfId="806">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9499864F-AE6B-42CA-ABB2-DD363BD0936C}" name="Tabela11" displayName="Tabela11" ref="B1:J48" totalsRowShown="0" headerRowDxfId="179" headerRowBorderDxfId="178" tableBorderDxfId="177" totalsRowBorderDxfId="176">
   <autoFilter ref="B1:J48" xr:uid="{9499864F-AE6B-42CA-ABB2-DD363BD0936C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2CF187B9-2179-4170-A3A6-C417AE00FB94}" name="TURBINA" dataDxfId="805"/>
-    <tableColumn id="2" xr3:uid="{2BA5F36D-04B5-46AB-8B83-888B7BBC303A}" name="ÍMÃS TROCADOS" dataDxfId="804" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{2CF187B9-2179-4170-A3A6-C417AE00FB94}" name="TURBINA" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{2BA5F36D-04B5-46AB-8B83-888B7BBC303A}" name="ÍMÃS TROCADOS" dataDxfId="174" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMIF(Dados_Brutos!D:D, B2, Dados_Brutos!E:E)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{091D6565-63C7-431F-AEDB-FD244F911B67}" name="% IMAS TROCADOS" dataDxfId="803" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{091D6565-63C7-431F-AEDB-FD244F911B67}" name="% IMAS TROCADOS" dataDxfId="173" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>(C2/1200)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9DAAEE2-A0CC-4E2E-9A8F-F7F721A8250D}" name="% CRITICIDADE DOWIND" dataDxfId="802" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{D9DAAEE2-A0CC-4E2E-9A8F-F7F721A8250D}" name="% CRITICIDADE DOWIND" dataDxfId="172" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!K:K, "Alto")&gt;0,0.8,IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!K:K, "Médio"),0.8,1))*Tabela11[[#This Row],[% IMAS TROCADOS]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E6AB1C28-FAF8-4738-A614-D4CFDC0B01D6}" name="% CRITICIDADE UPWIND" dataDxfId="801" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{E6AB1C28-FAF8-4738-A614-D4CFDC0B01D6}" name="% CRITICIDADE UPWIND" dataDxfId="171" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!L:L,"Alto")&gt;0, 0.8, IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!L:L,"Médio")&gt;0, 0.9, 1))*Tabela11[[#This Row],[% IMAS TROCADOS]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0096E4F3-1987-4E09-AB3B-9CBB49F72813}" name="CARREIRAS AFETADAS" dataDxfId="800">
+    <tableColumn id="6" xr3:uid="{0096E4F3-1987-4E09-AB3B-9CBB49F72813}" name="CARREIRAS AFETADAS" dataDxfId="170">
       <calculatedColumnFormula>COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"X") &amp; "/120"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54692FB9-C074-4BB2-8508-A8156AEF8C26}" name="RISCO" dataDxfId="799">
+    <tableColumn id="7" xr3:uid="{54692FB9-C074-4BB2-8508-A8156AEF8C26}" name="RISCO" dataDxfId="169">
       <calculatedColumnFormula>IF(OR(C2&gt;150, F2&gt;0.85), "🔴", IF(OR(C2&gt;100, F2&gt;0.9), "🟡", "🟢"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{23705ED1-BA8D-4DD3-9767-1784DE3D85F3}" name="UTIMA MANUTENÇÃO" dataDxfId="798">
+    <tableColumn id="8" xr3:uid="{23705ED1-BA8D-4DD3-9767-1784DE3D85F3}" name="UTIMA MANUTENÇÃO" dataDxfId="168">
       <calculatedColumnFormula array="1">MAX(IF(Dados_Brutos!D:D=Tabela11[[#This Row],[TURBINA]],Dados_Brutos!A:A))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0EA8082F-CB54-4EC4-9D7B-C9B37E44DC12}" name="PROXIMA PREVISÃO" dataDxfId="797">
+    <tableColumn id="9" xr3:uid="{0EA8082F-CB54-4EC4-9D7B-C9B37E44DC12}" name="PROXIMA PREVISÃO" dataDxfId="167">
       <calculatedColumnFormula>IFERROR(DATE(YEAR(I2),MONTH(I2)+7,DAY(I2)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12988,8 +9522,8 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19623,7 +16157,7 @@
         <v>NORMAL</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="57">
         <v>45965</v>
       </c>
@@ -19660,14 +16194,14 @@
         <v>88</v>
       </c>
       <c r="M148" s="59" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N148" s="44" t="str">
         <f>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F148="Substituido",J148&gt;0,),"ALTA PRIORIDADE","NORMAL"))</f>
         <v>NORMAL</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="57">
         <v>45966</v>
       </c>
@@ -19704,7 +16238,7 @@
         <v>88</v>
       </c>
       <c r="M149" s="59" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N149" s="44" t="str">
         <f>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F149="Substituido",J149&gt;0,),"ALTA PRIORIDADE","NORMAL"))</f>
@@ -19712,29 +16246,145 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G150" s="86"/>
+      <c r="A150" s="96">
+        <v>45971</v>
+      </c>
+      <c r="B150" s="97"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E150" s="97">
+        <v>0</v>
+      </c>
+      <c r="F150" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G150" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="H150" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="96">
+        <v>45971</v>
+      </c>
+      <c r="J150" s="98">
+        <v>0</v>
+      </c>
+      <c r="K150" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="L150" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="M150" s="99"/>
+      <c r="N150" s="100" t="str">
+        <f>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F150="Substituido",J150&gt;0,),"ALTA PRIORIDADE","NORMAL"))</f>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" s="96">
+        <v>45972</v>
+      </c>
+      <c r="B151" s="97"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E151" s="97">
+        <v>0</v>
+      </c>
+      <c r="F151" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="G151" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="H151" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="96">
+        <v>45972</v>
+      </c>
+      <c r="J151" s="98">
+        <v>0</v>
+      </c>
+      <c r="K151" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="L151" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="M151" s="99"/>
+      <c r="N151" s="100" t="str">
+        <f>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F151="Substituido",J151&gt;0,),"ALTA PRIORIDADE","NORMAL"))</f>
+        <v>NORMAL</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="96">
+        <v>45974</v>
+      </c>
+      <c r="B152" s="97"/>
+      <c r="C152" s="97"/>
+      <c r="D152" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="E152" s="97">
+        <v>20</v>
+      </c>
+      <c r="F152" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="H152" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="96">
+        <v>45974</v>
+      </c>
+      <c r="J152" s="98">
+        <v>0</v>
+      </c>
+      <c r="K152" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="L152" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="M152" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="N152" s="100" t="str">
+        <f>IF(Tabela1[[#This Row],[DATA INSPECAO]]="","",IF(AND($F152="Substituido",J152&gt;0,),"ALTA PRIORIDADE","NORMAL"))</f>
+        <v>NORMAL</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J158" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G149">
-    <cfRule type="expression" dxfId="149" priority="1">
+  <conditionalFormatting sqref="G2:G152">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>$G2="Terceiro Ciclo"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="2">
+    <cfRule type="expression" dxfId="156" priority="2">
       <formula>$G2="Segundo Ciclo"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>$G2="Primeiro Ciclo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F149" xr:uid="{377AED16-54B3-46E5-99F1-282D4BA3693B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F152" xr:uid="{377AED16-54B3-46E5-99F1-282D4BA3693B}">
       <formula1>"Substituido, Ímãs OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L149" xr:uid="{6BF2E99C-64D2-446F-9580-62426B1D8B9B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L152" xr:uid="{6BF2E99C-64D2-446F-9580-62426B1D8B9B}">
       <formula1>"Baixo, Médio, Alto"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19801,7 +16451,7 @@
       </c>
       <c r="B3" s="26">
         <f>SUM(Resumo_Turbinas!C:C)</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>IF(B3&gt;VLOOKUP("Imas Meta",Tabela7[],2),"📈","📉")</f>
@@ -19814,7 +16464,7 @@
       </c>
       <c r="B4" s="26" t="str">
         <f>"R$ "&amp;TEXT(SUM(Resumo_Turbinas!L:L),"#.##0,00")</f>
-        <v>R$ 2.238.712,12</v>
+        <v>R$ 2.264.356,02</v>
       </c>
       <c r="C4" s="27" t="str">
         <f>IF(SUM(Resumo_Turbinas!L:L)&gt;VLOOKUP("Custo Meta",Tabela7[],2),"📈","📉")</f>
@@ -19827,7 +16477,7 @@
       </c>
       <c r="B5" s="26" t="str">
         <f ca="1">TEXT(1-SUM(Resumo_Turbinas!G:G)/(47*(TODAY()-MIN(Resumo_Turbinas!D:D))),"0,0%")</f>
-        <v>94,5%</v>
+        <v>94,6%</v>
       </c>
       <c r="C5" s="27" t="str">
         <f ca="1">IF(B5&gt;VLOOKUP("Disponibilidade Meta",Tabela7[],2),"📈","📉")</f>
@@ -19840,7 +16490,7 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(Dados_Brutos!E:E) / (47*1200)</f>
-        <v>3.095744680851064E-2</v>
+        <v>3.1312056737588655E-2</v>
       </c>
       <c r="C6" s="28" t="str">
         <f>IF(B6&gt;VLOOKUP("A7",Tabela7[],2),"📈","📉")</f>
@@ -19849,10 +16499,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20928,7 +17578,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -21313,7 +17963,7 @@
       </c>
       <c r="M6" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8250000000000002</v>
+        <v>6.8624999999999998</v>
       </c>
       <c r="N6" s="48">
         <f t="shared" si="5"/>
@@ -21325,7 +17975,7 @@
       </c>
       <c r="P6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68315018315018317</v>
+        <v>0.68488160291438982</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -21378,7 +18028,7 @@
       </c>
       <c r="M7" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>28.15</v>
+        <v>28.3</v>
       </c>
       <c r="N7" s="48">
         <f t="shared" si="5"/>
@@ -21390,7 +18040,7 @@
       </c>
       <c r="P7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80284191829484897</v>
+        <v>0.80388692579505294</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -21443,7 +18093,7 @@
       </c>
       <c r="M8" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>17.266666666666666</v>
+        <v>17.366666666666667</v>
       </c>
       <c r="N8" s="48">
         <f t="shared" si="5"/>
@@ -21455,7 +18105,7 @@
       </c>
       <c r="P8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96911196911196906</v>
+        <v>0.96928982725527835</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -21508,7 +18158,7 @@
       </c>
       <c r="M9" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>176.66666666666666</v>
+        <v>177.66666666666666</v>
       </c>
       <c r="N9" s="48">
         <f t="shared" si="5"/>
@@ -21520,7 +18170,7 @@
       </c>
       <c r="P9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93396226415094341</v>
+        <v>0.93433395872420266</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -21573,7 +18223,7 @@
       </c>
       <c r="M10" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>25.142857142857142</v>
+        <v>25.285714285714285</v>
       </c>
       <c r="N10" s="48">
         <f t="shared" si="5"/>
@@ -21585,7 +18235,7 @@
       </c>
       <c r="P10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9375</v>
+        <v>0.93785310734463279</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -21703,7 +18353,7 @@
       </c>
       <c r="M12" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>26.25</v>
+        <v>26.4</v>
       </c>
       <c r="N12" s="48">
         <f t="shared" si="5"/>
@@ -21715,7 +18365,7 @@
       </c>
       <c r="P12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97142857142857142</v>
+        <v>0.97159090909090906</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -21833,7 +18483,7 @@
       </c>
       <c r="M14" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>10.48</v>
+        <v>10.54</v>
       </c>
       <c r="N14" s="48">
         <f t="shared" si="5"/>
@@ -21845,7 +18495,7 @@
       </c>
       <c r="P14" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95992366412213737</v>
+        <v>0.96015180265654654</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -21963,7 +18613,7 @@
       </c>
       <c r="M16" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>10.62</v>
+        <v>10.68</v>
       </c>
       <c r="N16" s="48">
         <f t="shared" si="5"/>
@@ -21975,7 +18625,7 @@
       </c>
       <c r="P16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95291902071563084</v>
+        <v>0.95318352059925093</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -22028,7 +18678,7 @@
       </c>
       <c r="M17" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>11.02</v>
+        <v>11.08</v>
       </c>
       <c r="N17" s="48">
         <f t="shared" si="5"/>
@@ -22040,7 +18690,7 @@
       </c>
       <c r="P17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89473684210526316</v>
+        <v>0.89530685920577613</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -22451,7 +19101,7 @@
       </c>
       <c r="E24" s="34" cm="1">
         <f t="array" ref="E24">IF(Tabela2[[#This Row],[ TURBINA]]="","",MAX(IF(Tabela1[TURBINA] =Tabela2[[#This Row],[ TURBINA]],Tabela1[DATA INSPECAO])))</f>
-        <v>45616</v>
+        <v>45972</v>
       </c>
       <c r="F24" s="33" t="str">
         <f>IFERROR(INDEX(Dados_Brutos!H:H,MATCH(A24,Dados_Brutos!D:D,0)),"")</f>
@@ -22463,7 +19113,7 @@
       </c>
       <c r="H24" s="33">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A24,Dados_Brutos!K:K,"*Baixo*"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="33">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A24,Dados_Brutos!K:K,"*Médio*"))</f>
@@ -22491,7 +19141,7 @@
       </c>
       <c r="O24" s="34">
         <f t="shared" si="2"/>
-        <v>45828</v>
+        <v>46184</v>
       </c>
       <c r="P24" s="36">
         <f t="shared" ca="1" si="9"/>
@@ -22548,7 +19198,7 @@
       </c>
       <c r="M25" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>13.074999999999999</v>
+        <v>13.15</v>
       </c>
       <c r="N25" s="48">
         <f t="shared" si="8"/>
@@ -22560,7 +19210,7 @@
       </c>
       <c r="P25" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97131931166347996</v>
+        <v>0.97148288973384034</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -22613,7 +19263,7 @@
       </c>
       <c r="M26" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>15.09375</v>
+        <v>15.1875</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="8"/>
@@ -22625,7 +19275,7 @@
       </c>
       <c r="P26" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97515527950310554</v>
+        <v>0.97530864197530864</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -22678,7 +19328,7 @@
       </c>
       <c r="M27" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>26.15</v>
+        <v>26.3</v>
       </c>
       <c r="N27" s="48">
         <f t="shared" si="8"/>
@@ -22690,7 +19340,7 @@
       </c>
       <c r="P27" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98087954110898656</v>
+        <v>0.98098859315589348</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -22711,7 +19361,7 @@
       </c>
       <c r="E28" s="34" cm="1">
         <f t="array" ref="E28">IF(Tabela2[[#This Row],[ TURBINA]]="","",MAX(IF(Tabela1[TURBINA] =Tabela2[[#This Row],[ TURBINA]],Tabela1[DATA INSPECAO])))</f>
-        <v>45630</v>
+        <v>45971</v>
       </c>
       <c r="F28" s="33" t="str">
         <f>IFERROR(INDEX(Dados_Brutos!H:H,MATCH(A28,Dados_Brutos!D:D,0)),"")</f>
@@ -22723,7 +19373,7 @@
       </c>
       <c r="H28" s="33">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A28,Dados_Brutos!K:K,"*Baixo*"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="33">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A28,Dados_Brutos!K:K,"*Médio*"))</f>
@@ -22751,7 +19401,7 @@
       </c>
       <c r="O28" s="34">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>46183</v>
       </c>
       <c r="P28" s="36">
         <f t="shared" ca="1" si="9"/>
@@ -22808,7 +19458,7 @@
       </c>
       <c r="M29" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>10.14</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N29" s="48">
         <f t="shared" si="8"/>
@@ -22820,7 +19470,7 @@
       </c>
       <c r="P29" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97830374753451677</v>
+        <v>0.97843137254901957</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -22873,7 +19523,7 @@
       </c>
       <c r="M30" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>4.084507042253521</v>
+        <v>4.105633802816901</v>
       </c>
       <c r="N30" s="48">
         <f t="shared" si="8"/>
@@ -22885,7 +19535,7 @@
       </c>
       <c r="P30" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65172413793103456</v>
+        <v>0.65351629502572894</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -22938,7 +19588,7 @@
       </c>
       <c r="M31" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="N31" s="48">
         <f t="shared" si="8"/>
@@ -23003,7 +19653,7 @@
       </c>
       <c r="M32" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="N32" s="48">
         <f t="shared" si="8"/>
@@ -23015,7 +19665,7 @@
       </c>
       <c r="P32" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99817850637522765</v>
+        <v>0.99818840579710144</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -23133,7 +19783,7 @@
       </c>
       <c r="M34" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3375000000000004</v>
+        <v>7.375</v>
       </c>
       <c r="N34" s="48">
         <f t="shared" si="8"/>
@@ -23145,7 +19795,7 @@
       </c>
       <c r="P34" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.78194207836456564</v>
+        <v>0.7830508474576271</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -23198,7 +19848,7 @@
       </c>
       <c r="M35" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>8.741935483870968</v>
+        <v>8.7903225806451619</v>
       </c>
       <c r="N35" s="48">
         <f t="shared" si="8"/>
@@ -23210,7 +19860,7 @@
       </c>
       <c r="P35" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8837638376383764</v>
+        <v>0.88440366972477058</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -23263,7 +19913,7 @@
       </c>
       <c r="M36" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3731707317073172</v>
+        <v>1.3804878048780487</v>
       </c>
       <c r="N36" s="48">
         <f t="shared" si="8"/>
@@ -23275,7 +19925,7 @@
       </c>
       <c r="P36" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70515097690941386</v>
+        <v>0.70671378091872794</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -23288,7 +19938,7 @@
       </c>
       <c r="C37" s="15">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",SUMIF(Dados_Brutos!D:D,A37,Dados_Brutos!E:E))</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D37" s="16" cm="1">
         <f t="array" ref="D37">IF(Tabela2[[#This Row],[ TURBINA]]="","",MIN(IF(Dados_Brutos!D:D=Tabela2[[#This Row],[ TURBINA]],Dados_Brutos!A:A)))</f>
@@ -23296,7 +19946,7 @@
       </c>
       <c r="E37" s="16" cm="1">
         <f t="array" ref="E37">IF(Tabela2[[#This Row],[ TURBINA]]="","",MAX(IF(Tabela1[TURBINA] =Tabela2[[#This Row],[ TURBINA]],Tabela1[DATA INSPECAO])))</f>
-        <v>45736</v>
+        <v>45974</v>
       </c>
       <c r="F37" s="15" t="str">
         <f>IFERROR(INDEX(Dados_Brutos!H:H,MATCH(A37,Dados_Brutos!D:D,0)),"")</f>
@@ -23308,7 +19958,7 @@
       </c>
       <c r="H37" s="15">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A37,Dados_Brutos!K:K,"*Baixo*"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="15">
         <f>IF(Tabela2[[#This Row],[ TURBINA]]="","",COUNTIFS(Dados_Brutos!D:D,A37,Dados_Brutos!K:K,"*Médio*"))</f>
@@ -23324,23 +19974,23 @@
       </c>
       <c r="L37" s="50">
         <f>Tabela2[[#This Row],[ TOTAL IMAS TROCADOS]]*Config!$B$2</f>
-        <v>384658.44</v>
+        <v>410302.33600000001</v>
       </c>
       <c r="M37" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8533333333333333</v>
+        <v>1.746875</v>
       </c>
       <c r="N37" s="48">
         <f t="shared" si="8"/>
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="O37" s="16">
         <f t="shared" si="2"/>
-        <v>45950</v>
+        <v>46186</v>
       </c>
       <c r="P37" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74100719424460437</v>
+        <v>0.74239713774597493</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -23523,7 +20173,7 @@
       </c>
       <c r="M40" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>4.458333333333333</v>
+        <v>4.4833333333333334</v>
       </c>
       <c r="N40" s="48">
         <f t="shared" si="8"/>
@@ -23535,7 +20185,7 @@
       </c>
       <c r="P40" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99626168224299061</v>
+        <v>0.99628252788104088</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -23653,7 +20303,7 @@
       </c>
       <c r="M42" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>179.66666666666666</v>
+        <v>180.66666666666666</v>
       </c>
       <c r="N42" s="48">
         <f t="shared" si="8"/>
@@ -23665,7 +20315,7 @@
       </c>
       <c r="P42" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.96660482374768086</v>
+        <v>0.96678966789667897</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -23848,7 +20498,7 @@
       </c>
       <c r="M45" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>22.478260869565219</v>
+        <v>22.608695652173914</v>
       </c>
       <c r="N45" s="48">
         <f t="shared" si="8"/>
@@ -23860,7 +20510,7 @@
       </c>
       <c r="P45" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94390715667311409</v>
+        <v>0.94423076923076921</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -23913,7 +20563,7 @@
       </c>
       <c r="M46" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="N46" s="48">
         <f t="shared" si="8"/>
@@ -23925,7 +20575,7 @@
       </c>
       <c r="P46" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66269165247018735</v>
+        <v>0.66440677966101691</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -23978,7 +20628,7 @@
       </c>
       <c r="M47" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>26.9</v>
+        <v>27.05</v>
       </c>
       <c r="N47" s="48">
         <f t="shared" si="8"/>
@@ -23990,7 +20640,7 @@
       </c>
       <c r="P47" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95539033457249067</v>
+        <v>0.95563770794824399</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -24060,18 +20710,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F48">
-    <cfRule type="expression" dxfId="146" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>$F2="Fora de Operação"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K48">
-    <cfRule type="containsText" dxfId="145" priority="2" operator="containsText" text="ALTO RISCO">
+    <cfRule type="containsText" dxfId="153" priority="2" operator="containsText" text="ALTO RISCO">
       <formula>NOT(ISERROR(SEARCH("ALTO RISCO",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="MÉDIO RISCO">
+    <cfRule type="containsText" dxfId="152" priority="3" operator="containsText" text="MÉDIO RISCO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO RISCO",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="4" operator="containsText" text="BAIXO RISCO">
+    <cfRule type="containsText" dxfId="151" priority="4" operator="containsText" text="BAIXO RISCO">
       <formula>NOT(ISERROR(SEARCH("BAIXO RISCO",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24305,20 +20955,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="93" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="94">
         <f>IF(A6="Primeiro Ciclo", 2024, IF(A6="Segundo Ciclo", 2024, 2025))</f>
         <v>2025</v>
       </c>
       <c r="C6" s="58">
         <f>COUNTIF(Dados_Brutos!G:G,A6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="58">
         <f>COUNTIFS(Dados_Brutos!$G:$G,$A6,Dados_Brutos!$F:$F,"Substituido")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="58">
         <f>COUNTIFS(Dados_Brutos!$G:$G,$A6,Dados_Brutos!$H:$H,"Fora de Operação")</f>
@@ -24326,11 +20976,11 @@
       </c>
       <c r="F6" s="58">
         <f>SUMIF(Dados_Brutos!G:G,A6,Dados_Brutos!E:E)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G6" s="58">
         <f>COUNTIFS(Dados_Brutos!G:G,A6,Dados_Brutos!K:K,"*Baixo*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="58">
         <f>COUNTIFS(Dados_Brutos!G:G,A6,Dados_Brutos!K:K,"*Médio*")</f>
@@ -24340,9 +20990,9 @@
         <f>COUNTIFS(Dados_Brutos!G:G,A6,Dados_Brutos!K:K,"*Alto*")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="101">
+      <c r="J6" s="95">
         <f>F6*Config!$B$2</f>
-        <v>25643.896000000001</v>
+        <v>51287.792000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -24434,7 +21084,7 @@
       </c>
       <c r="B2" s="33">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C2" s="33">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24454,11 +21104,11 @@
       </c>
       <c r="G2" s="40">
         <f>B2*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H2" s="41">
         <f>IF(B2&gt;0, 30/B2, "Sem dados")</f>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I2" s="35">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A2, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A2,0)),"-")</f>
@@ -24475,7 +21125,7 @@
       </c>
       <c r="B3" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C3" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24495,11 +21145,11 @@
       </c>
       <c r="G3" s="22">
         <f>B3*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H3" s="69">
         <f t="shared" ref="H3:H35" si="0">IF(B3&gt;0, 30/B3, "Sem dados")</f>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I3" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A3, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A3,0)),"-")</f>
@@ -24516,7 +21166,7 @@
       </c>
       <c r="B4" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C4" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24536,11 +21186,11 @@
       </c>
       <c r="G4" s="22">
         <f>B4*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H4" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I4" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A4, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A4,0)),"-")</f>
@@ -24557,7 +21207,7 @@
       </c>
       <c r="B5" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C5" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24577,11 +21227,11 @@
       </c>
       <c r="G5" s="22">
         <f>B5*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H5" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I5" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A5, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A5,0)),"-")</f>
@@ -24598,7 +21248,7 @@
       </c>
       <c r="B6" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C6" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24618,11 +21268,11 @@
       </c>
       <c r="G6" s="22">
         <f>B6*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H6" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I6" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A6, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A6,0)),"-")</f>
@@ -24639,7 +21289,7 @@
       </c>
       <c r="B7" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C7" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24659,11 +21309,11 @@
       </c>
       <c r="G7" s="22">
         <f>B7*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H7" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I7" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A7, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A7,0)),"-")</f>
@@ -24680,7 +21330,7 @@
       </c>
       <c r="B8" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C8" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24700,11 +21350,11 @@
       </c>
       <c r="G8" s="22">
         <f>B8*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H8" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I8" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A8, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A8,0)),"-")</f>
@@ -24721,7 +21371,7 @@
       </c>
       <c r="B9" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C9" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24741,11 +21391,11 @@
       </c>
       <c r="G9" s="22">
         <f>B9*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H9" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I9" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A9, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A9,0)),"-")</f>
@@ -24762,7 +21412,7 @@
       </c>
       <c r="B10" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C10" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24782,11 +21432,11 @@
       </c>
       <c r="G10" s="22">
         <f>B10*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H10" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I10" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A10, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A10,0)),"-")</f>
@@ -24803,7 +21453,7 @@
       </c>
       <c r="B11" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C11" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24823,11 +21473,11 @@
       </c>
       <c r="G11" s="22">
         <f>B11*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H11" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I11" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A11, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A11,0)),"-")</f>
@@ -24844,7 +21494,7 @@
       </c>
       <c r="B12" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C12" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24864,11 +21514,11 @@
       </c>
       <c r="G12" s="22">
         <f>B12*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H12" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I12" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A12, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A12,0)),"-")</f>
@@ -24885,7 +21535,7 @@
       </c>
       <c r="B13" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C13" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24905,11 +21555,11 @@
       </c>
       <c r="G13" s="22">
         <f>B13*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H13" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I13" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A13, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A13,0)),"-")</f>
@@ -24926,7 +21576,7 @@
       </c>
       <c r="B14" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24946,11 +21596,11 @@
       </c>
       <c r="G14" s="22">
         <f>B14*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H14" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I14" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A14, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A14,0)),"-")</f>
@@ -24967,7 +21617,7 @@
       </c>
       <c r="B15" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C15" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -24987,11 +21637,11 @@
       </c>
       <c r="G15" s="22">
         <f>B15*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H15" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I15" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A15, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A15,0)),"-")</f>
@@ -25008,7 +21658,7 @@
       </c>
       <c r="B16" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C16" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25028,11 +21678,11 @@
       </c>
       <c r="G16" s="22">
         <f>B16*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H16" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I16" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A16, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A16,0)),"-")</f>
@@ -25049,7 +21699,7 @@
       </c>
       <c r="B17" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C17" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25069,11 +21719,11 @@
       </c>
       <c r="G17" s="22">
         <f>B17*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H17" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I17" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A17, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A17,0)),"-")</f>
@@ -25090,7 +21740,7 @@
       </c>
       <c r="B18" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C18" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25110,11 +21760,11 @@
       </c>
       <c r="G18" s="22">
         <f>B18*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H18" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I18" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A18, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A18,0)),"-")</f>
@@ -25131,7 +21781,7 @@
       </c>
       <c r="B19" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C19" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25151,11 +21801,11 @@
       </c>
       <c r="G19" s="22">
         <f>B19*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H19" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I19" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A19, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A19,0)),"-")</f>
@@ -25172,7 +21822,7 @@
       </c>
       <c r="B20" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C20" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25192,11 +21842,11 @@
       </c>
       <c r="G20" s="22">
         <f>B20*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H20" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I20" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A20, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A20,0)),"-")</f>
@@ -25213,7 +21863,7 @@
       </c>
       <c r="B21" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C21" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25233,11 +21883,11 @@
       </c>
       <c r="G21" s="22">
         <f>B21*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H21" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I21" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A21, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A21,0)),"-")</f>
@@ -25254,7 +21904,7 @@
       </c>
       <c r="B22" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C22" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25274,11 +21924,11 @@
       </c>
       <c r="G22" s="22">
         <f>B22*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H22" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I22" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A22, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A22,0)),"-")</f>
@@ -25295,7 +21945,7 @@
       </c>
       <c r="B23" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C23" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25315,11 +21965,11 @@
       </c>
       <c r="G23" s="22">
         <f>B23*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H23" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I23" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A23, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A23,0)),"-")</f>
@@ -25336,7 +21986,7 @@
       </c>
       <c r="B24" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C24" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25356,11 +22006,11 @@
       </c>
       <c r="G24" s="22">
         <f>B24*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H24" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I24" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A24, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A24,0)),"-")</f>
@@ -25377,7 +22027,7 @@
       </c>
       <c r="B25" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C25" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25397,11 +22047,11 @@
       </c>
       <c r="G25" s="22">
         <f>B25*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H25" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I25" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A25, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A25,0)),"-")</f>
@@ -25418,7 +22068,7 @@
       </c>
       <c r="B26" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C26" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25438,11 +22088,11 @@
       </c>
       <c r="G26" s="22">
         <f>B26*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H26" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I26" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A26, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A26,0)),"-")</f>
@@ -25459,7 +22109,7 @@
       </c>
       <c r="B27" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C27" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25479,11 +22129,11 @@
       </c>
       <c r="G27" s="22">
         <f>B27*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H27" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I27" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A27, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A27,0)),"-")</f>
@@ -25500,7 +22150,7 @@
       </c>
       <c r="B28" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C28" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25520,11 +22170,11 @@
       </c>
       <c r="G28" s="22">
         <f>B28*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H28" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I28" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A28, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A28,0)),"-")</f>
@@ -25541,7 +22191,7 @@
       </c>
       <c r="B29" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C29" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25561,11 +22211,11 @@
       </c>
       <c r="G29" s="22">
         <f>B29*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H29" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I29" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A29, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A29,0)),"-")</f>
@@ -25582,7 +22232,7 @@
       </c>
       <c r="B30" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C30" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25602,11 +22252,11 @@
       </c>
       <c r="G30" s="22">
         <f>B30*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H30" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I30" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A30, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A30,0)),"-")</f>
@@ -25623,7 +22273,7 @@
       </c>
       <c r="B31" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C31" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25643,11 +22293,11 @@
       </c>
       <c r="G31" s="22">
         <f>B31*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H31" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I31" s="21" t="str">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A31, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A31,0)),"-")</f>
@@ -25664,7 +22314,7 @@
       </c>
       <c r="B32" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C32" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25684,11 +22334,11 @@
       </c>
       <c r="G32" s="22">
         <f>B32*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H32" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I32" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A32, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A32,0)),"-")</f>
@@ -25705,7 +22355,7 @@
       </c>
       <c r="B33" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C33" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25725,11 +22375,11 @@
       </c>
       <c r="G33" s="22">
         <f>B33*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H33" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I33" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A33, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A33,0)),"-")</f>
@@ -25746,7 +22396,7 @@
       </c>
       <c r="B34" s="15">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C34" s="15">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25766,11 +22416,11 @@
       </c>
       <c r="G34" s="22">
         <f>B34*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H34" s="69">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I34" s="21">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A34, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A34,0)),"-")</f>
@@ -25787,7 +22437,7 @@
       </c>
       <c r="B35" s="33">
         <f>SUMIFS(Dados_Brutos!E:E,Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,1))</f>
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C35" s="33">
         <f>COUNTIFS(Dados_Brutos!A:A,"&gt;="&amp;DATE(2024,1,1),Dados_Brutos!A:A,"&lt;="&amp;DATE(2025,12,31),Dados_Brutos!H:H,"Fora de Operação")</f>
@@ -25807,11 +22457,11 @@
       </c>
       <c r="G35" s="40">
         <f>B35*Config!$B$2</f>
-        <v>2238712.1208000001</v>
+        <v>2264356.0167999999</v>
       </c>
       <c r="H35" s="41">
         <f t="shared" si="0"/>
-        <v>1.7182130584192441E-2</v>
+        <v>1.698754246885617E-2</v>
       </c>
       <c r="I35" s="35">
         <f>IFERROR(AVERAGEIFS(Dados_Brutos!J:J, Dados_Brutos!A:A, "&gt;="&amp;A35, Dados_Brutos!A:A, "&lt;="&amp;EOMONTH(A35,0)),"-")</f>
@@ -25830,17 +22480,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D35">
-    <cfRule type="expression" dxfId="142" priority="3">
+    <cfRule type="expression" dxfId="150" priority="3">
       <formula>$D2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="expression" dxfId="141" priority="2">
+    <cfRule type="expression" dxfId="149" priority="2">
       <formula>$E2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F35">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="148" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29860,18 +26510,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C121">
-    <cfRule type="expression" dxfId="139" priority="1">
+    <cfRule type="expression" dxfId="147" priority="1">
       <formula>$C2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F121">
-    <cfRule type="containsText" dxfId="138" priority="2" operator="containsText" text="BAIXA">
+    <cfRule type="containsText" dxfId="146" priority="2" operator="containsText" text="BAIXA">
       <formula>NOT(ISERROR(SEARCH("BAIXA",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="3" operator="containsText" text="MÉDIA">
+    <cfRule type="containsText" dxfId="145" priority="3" operator="containsText" text="MÉDIA">
       <formula>NOT(ISERROR(SEARCH("MÉDIA",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="4" operator="containsText" text="ALTA">
+    <cfRule type="containsText" dxfId="144" priority="4" operator="containsText" text="ALTA">
       <formula>NOT(ISERROR(SEARCH("ALTA",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29887,8 +26537,8 @@
   <dimension ref="A1:EA132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K128" sqref="K128"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29933,7 +26583,7 @@
         <v>362</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>85</v>
@@ -45302,7 +41952,7 @@
       </c>
       <c r="I94" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J94" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
@@ -45378,7 +42028,9 @@
       <c r="BW94" s="7"/>
       <c r="BX94" s="7"/>
       <c r="BY94" s="7"/>
-      <c r="BZ94" s="7"/>
+      <c r="BZ94" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="CA94" s="7"/>
       <c r="CB94" s="7"/>
       <c r="CC94" s="7"/>
@@ -45409,7 +42061,9 @@
         <v>351</v>
       </c>
       <c r="CZ94" s="7"/>
-      <c r="DA94" s="7"/>
+      <c r="DA94" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="DB94" s="7"/>
       <c r="DC94" s="7"/>
       <c r="DD94" s="7"/>
@@ -50775,7 +47429,7 @@
       <c r="A128" s="77">
         <v>45862</v>
       </c>
-      <c r="B128" s="96"/>
+      <c r="B128" s="78"/>
       <c r="C128" s="76" t="s">
         <v>82</v>
       </c>
@@ -50788,152 +47442,152 @@
       <c r="F128" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G128" s="97">
+      <c r="G128" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="97">
+      <c r="H128" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="I128" s="97">
+      <c r="I128" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="J128" s="97">
+      <c r="J128" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="K128" s="97">
+      <c r="K128" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="L128" s="98"/>
-      <c r="M128" s="98"/>
-      <c r="N128" s="98"/>
-      <c r="O128" s="98"/>
-      <c r="P128" s="98"/>
-      <c r="Q128" s="98"/>
-      <c r="R128" s="98"/>
-      <c r="S128" s="98"/>
-      <c r="T128" s="98"/>
-      <c r="U128" s="98"/>
-      <c r="V128" s="98"/>
-      <c r="W128" s="98"/>
-      <c r="X128" s="98"/>
-      <c r="Y128" s="98"/>
-      <c r="Z128" s="98"/>
-      <c r="AA128" s="98"/>
-      <c r="AB128" s="98"/>
-      <c r="AC128" s="98"/>
-      <c r="AD128" s="98"/>
-      <c r="AE128" s="98"/>
-      <c r="AF128" s="98"/>
-      <c r="AG128" s="98"/>
-      <c r="AH128" s="98"/>
-      <c r="AI128" s="98"/>
-      <c r="AJ128" s="98"/>
-      <c r="AK128" s="98"/>
-      <c r="AL128" s="98"/>
-      <c r="AM128" s="98"/>
-      <c r="AN128" s="98"/>
-      <c r="AO128" s="98"/>
-      <c r="AP128" s="98"/>
-      <c r="AQ128" s="98"/>
-      <c r="AR128" s="98"/>
-      <c r="AS128" s="98"/>
-      <c r="AT128" s="98"/>
-      <c r="AU128" s="98"/>
-      <c r="AV128" s="98"/>
-      <c r="AW128" s="98"/>
-      <c r="AX128" s="98"/>
-      <c r="AY128" s="98"/>
-      <c r="AZ128" s="98"/>
-      <c r="BA128" s="98"/>
-      <c r="BB128" s="98"/>
-      <c r="BC128" s="98"/>
-      <c r="BD128" s="98"/>
-      <c r="BE128" s="98"/>
-      <c r="BF128" s="98"/>
-      <c r="BG128" s="98"/>
-      <c r="BH128" s="98"/>
-      <c r="BI128" s="98"/>
-      <c r="BJ128" s="98"/>
-      <c r="BK128" s="98"/>
-      <c r="BL128" s="98"/>
-      <c r="BM128" s="98"/>
-      <c r="BN128" s="98"/>
-      <c r="BO128" s="98"/>
-      <c r="BP128" s="98"/>
-      <c r="BQ128" s="98"/>
-      <c r="BR128" s="98"/>
-      <c r="BS128" s="98"/>
-      <c r="BT128" s="98"/>
-      <c r="BU128" s="98"/>
-      <c r="BV128" s="98"/>
-      <c r="BW128" s="98"/>
-      <c r="BX128" s="98"/>
-      <c r="BY128" s="98"/>
-      <c r="BZ128" s="98"/>
-      <c r="CA128" s="98"/>
-      <c r="CB128" s="98"/>
-      <c r="CC128" s="98"/>
-      <c r="CD128" s="98"/>
-      <c r="CE128" s="98"/>
-      <c r="CF128" s="98"/>
-      <c r="CG128" s="98"/>
-      <c r="CH128" s="98"/>
-      <c r="CI128" s="98"/>
-      <c r="CJ128" s="98"/>
-      <c r="CK128" s="98"/>
-      <c r="CL128" s="98"/>
-      <c r="CM128" s="98"/>
-      <c r="CN128" s="98"/>
-      <c r="CO128" s="98"/>
-      <c r="CP128" s="98"/>
-      <c r="CQ128" s="98"/>
-      <c r="CR128" s="98"/>
-      <c r="CS128" s="98"/>
-      <c r="CT128" s="98"/>
-      <c r="CU128" s="98"/>
-      <c r="CV128" s="98"/>
-      <c r="CW128" s="98"/>
-      <c r="CX128" s="98"/>
-      <c r="CY128" s="98"/>
-      <c r="CZ128" s="98"/>
-      <c r="DA128" s="98"/>
-      <c r="DB128" s="98"/>
-      <c r="DC128" s="98"/>
-      <c r="DD128" s="98"/>
-      <c r="DE128" s="98"/>
-      <c r="DF128" s="98"/>
-      <c r="DG128" s="98"/>
-      <c r="DH128" s="98"/>
-      <c r="DI128" s="98"/>
-      <c r="DJ128" s="98"/>
-      <c r="DK128" s="98"/>
-      <c r="DL128" s="98"/>
-      <c r="DM128" s="98"/>
-      <c r="DN128" s="98"/>
-      <c r="DO128" s="98"/>
-      <c r="DP128" s="98"/>
-      <c r="DQ128" s="98"/>
-      <c r="DR128" s="98"/>
-      <c r="DS128" s="98"/>
-      <c r="DT128" s="98"/>
-      <c r="DU128" s="98"/>
-      <c r="DV128" s="98"/>
-      <c r="DW128" s="98"/>
-      <c r="DX128" s="98"/>
-      <c r="DY128" s="98"/>
-      <c r="DZ128" s="98"/>
-      <c r="EA128" s="98"/>
+      <c r="L128" s="44"/>
+      <c r="M128" s="44"/>
+      <c r="N128" s="44"/>
+      <c r="O128" s="44"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="44"/>
+      <c r="S128" s="44"/>
+      <c r="T128" s="44"/>
+      <c r="U128" s="44"/>
+      <c r="V128" s="44"/>
+      <c r="W128" s="44"/>
+      <c r="X128" s="44"/>
+      <c r="Y128" s="44"/>
+      <c r="Z128" s="44"/>
+      <c r="AA128" s="44"/>
+      <c r="AB128" s="44"/>
+      <c r="AC128" s="44"/>
+      <c r="AD128" s="44"/>
+      <c r="AE128" s="44"/>
+      <c r="AF128" s="44"/>
+      <c r="AG128" s="44"/>
+      <c r="AH128" s="44"/>
+      <c r="AI128" s="44"/>
+      <c r="AJ128" s="44"/>
+      <c r="AK128" s="44"/>
+      <c r="AL128" s="44"/>
+      <c r="AM128" s="44"/>
+      <c r="AN128" s="44"/>
+      <c r="AO128" s="44"/>
+      <c r="AP128" s="44"/>
+      <c r="AQ128" s="44"/>
+      <c r="AR128" s="44"/>
+      <c r="AS128" s="44"/>
+      <c r="AT128" s="44"/>
+      <c r="AU128" s="44"/>
+      <c r="AV128" s="44"/>
+      <c r="AW128" s="44"/>
+      <c r="AX128" s="44"/>
+      <c r="AY128" s="44"/>
+      <c r="AZ128" s="44"/>
+      <c r="BA128" s="44"/>
+      <c r="BB128" s="44"/>
+      <c r="BC128" s="44"/>
+      <c r="BD128" s="44"/>
+      <c r="BE128" s="44"/>
+      <c r="BF128" s="44"/>
+      <c r="BG128" s="44"/>
+      <c r="BH128" s="44"/>
+      <c r="BI128" s="44"/>
+      <c r="BJ128" s="44"/>
+      <c r="BK128" s="44"/>
+      <c r="BL128" s="44"/>
+      <c r="BM128" s="44"/>
+      <c r="BN128" s="44"/>
+      <c r="BO128" s="44"/>
+      <c r="BP128" s="44"/>
+      <c r="BQ128" s="44"/>
+      <c r="BR128" s="44"/>
+      <c r="BS128" s="44"/>
+      <c r="BT128" s="44"/>
+      <c r="BU128" s="44"/>
+      <c r="BV128" s="44"/>
+      <c r="BW128" s="44"/>
+      <c r="BX128" s="44"/>
+      <c r="BY128" s="44"/>
+      <c r="BZ128" s="44"/>
+      <c r="CA128" s="44"/>
+      <c r="CB128" s="44"/>
+      <c r="CC128" s="44"/>
+      <c r="CD128" s="44"/>
+      <c r="CE128" s="44"/>
+      <c r="CF128" s="44"/>
+      <c r="CG128" s="44"/>
+      <c r="CH128" s="44"/>
+      <c r="CI128" s="44"/>
+      <c r="CJ128" s="44"/>
+      <c r="CK128" s="44"/>
+      <c r="CL128" s="44"/>
+      <c r="CM128" s="44"/>
+      <c r="CN128" s="44"/>
+      <c r="CO128" s="44"/>
+      <c r="CP128" s="44"/>
+      <c r="CQ128" s="44"/>
+      <c r="CR128" s="44"/>
+      <c r="CS128" s="44"/>
+      <c r="CT128" s="44"/>
+      <c r="CU128" s="44"/>
+      <c r="CV128" s="44"/>
+      <c r="CW128" s="44"/>
+      <c r="CX128" s="44"/>
+      <c r="CY128" s="44"/>
+      <c r="CZ128" s="44"/>
+      <c r="DA128" s="44"/>
+      <c r="DB128" s="44"/>
+      <c r="DC128" s="44"/>
+      <c r="DD128" s="44"/>
+      <c r="DE128" s="44"/>
+      <c r="DF128" s="44"/>
+      <c r="DG128" s="44"/>
+      <c r="DH128" s="44"/>
+      <c r="DI128" s="44"/>
+      <c r="DJ128" s="44"/>
+      <c r="DK128" s="44"/>
+      <c r="DL128" s="44"/>
+      <c r="DM128" s="44"/>
+      <c r="DN128" s="44"/>
+      <c r="DO128" s="44"/>
+      <c r="DP128" s="44"/>
+      <c r="DQ128" s="44"/>
+      <c r="DR128" s="44"/>
+      <c r="DS128" s="44"/>
+      <c r="DT128" s="44"/>
+      <c r="DU128" s="44"/>
+      <c r="DV128" s="44"/>
+      <c r="DW128" s="44"/>
+      <c r="DX128" s="44"/>
+      <c r="DY128" s="44"/>
+      <c r="DZ128" s="44"/>
+      <c r="EA128" s="44"/>
     </row>
     <row r="129" spans="1:131" x14ac:dyDescent="0.3">
       <c r="A129" s="77">
         <v>45912</v>
       </c>
-      <c r="B129" s="96"/>
+      <c r="B129" s="78"/>
       <c r="C129" s="76" t="s">
         <v>16</v>
       </c>
@@ -50946,156 +47600,156 @@
       <c r="F129" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G129" s="97">
+      <c r="G129" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="H129" s="97">
+      <c r="H129" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="I129" s="97">
+      <c r="I129" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="J129" s="97">
+      <c r="J129" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="K129" s="97">
+      <c r="K129" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>2</v>
       </c>
-      <c r="L129" s="98"/>
-      <c r="M129" s="98"/>
-      <c r="N129" s="98"/>
-      <c r="O129" s="98"/>
-      <c r="P129" s="98"/>
-      <c r="Q129" s="98"/>
-      <c r="R129" s="98"/>
-      <c r="S129" s="98"/>
-      <c r="T129" s="98"/>
-      <c r="U129" s="98"/>
-      <c r="V129" s="98"/>
-      <c r="W129" s="98"/>
-      <c r="X129" s="98"/>
-      <c r="Y129" s="98"/>
-      <c r="Z129" s="98"/>
-      <c r="AA129" s="98"/>
-      <c r="AB129" s="98"/>
-      <c r="AC129" s="98"/>
-      <c r="AD129" s="98"/>
-      <c r="AE129" s="98"/>
-      <c r="AF129" s="98"/>
-      <c r="AG129" s="98"/>
-      <c r="AH129" s="98"/>
-      <c r="AI129" s="98"/>
-      <c r="AJ129" s="98"/>
-      <c r="AK129" s="98"/>
-      <c r="AL129" s="98"/>
-      <c r="AM129" s="98"/>
-      <c r="AN129" s="98"/>
-      <c r="AO129" s="98"/>
-      <c r="AP129" s="98"/>
-      <c r="AQ129" s="98"/>
-      <c r="AR129" s="98"/>
-      <c r="AS129" s="98"/>
-      <c r="AT129" s="98"/>
-      <c r="AU129" s="98"/>
-      <c r="AV129" s="98"/>
-      <c r="AW129" s="98"/>
-      <c r="AX129" s="98"/>
-      <c r="AY129" s="98"/>
-      <c r="AZ129" s="98"/>
-      <c r="BA129" s="98"/>
-      <c r="BB129" s="98"/>
-      <c r="BC129" s="98"/>
-      <c r="BD129" s="98"/>
-      <c r="BE129" s="98"/>
-      <c r="BF129" s="98"/>
-      <c r="BG129" s="98"/>
-      <c r="BH129" s="98"/>
-      <c r="BI129" s="98"/>
-      <c r="BJ129" s="98"/>
-      <c r="BK129" s="98"/>
-      <c r="BL129" s="98"/>
-      <c r="BM129" s="98"/>
-      <c r="BN129" s="98"/>
-      <c r="BO129" s="98"/>
-      <c r="BP129" s="98"/>
-      <c r="BQ129" s="98"/>
-      <c r="BR129" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="BS129" s="98"/>
-      <c r="BT129" s="98"/>
-      <c r="BU129" s="98"/>
-      <c r="BV129" s="98"/>
-      <c r="BW129" s="98"/>
-      <c r="BX129" s="98"/>
-      <c r="BY129" s="98"/>
-      <c r="BZ129" s="98"/>
-      <c r="CA129" s="98"/>
-      <c r="CB129" s="98"/>
-      <c r="CC129" s="98"/>
-      <c r="CD129" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="CE129" s="98"/>
-      <c r="CF129" s="98"/>
-      <c r="CG129" s="98"/>
-      <c r="CH129" s="98"/>
-      <c r="CI129" s="98"/>
-      <c r="CJ129" s="98"/>
-      <c r="CK129" s="98"/>
-      <c r="CL129" s="98"/>
-      <c r="CM129" s="98"/>
-      <c r="CN129" s="98"/>
-      <c r="CO129" s="98"/>
-      <c r="CP129" s="98"/>
-      <c r="CQ129" s="98"/>
-      <c r="CR129" s="98"/>
-      <c r="CS129" s="98"/>
-      <c r="CT129" s="98"/>
-      <c r="CU129" s="98"/>
-      <c r="CV129" s="98"/>
-      <c r="CW129" s="98"/>
-      <c r="CX129" s="98"/>
-      <c r="CY129" s="98"/>
-      <c r="CZ129" s="98"/>
-      <c r="DA129" s="98"/>
-      <c r="DB129" s="98"/>
-      <c r="DC129" s="98"/>
-      <c r="DD129" s="98"/>
-      <c r="DE129" s="98"/>
-      <c r="DF129" s="98"/>
-      <c r="DG129" s="98"/>
-      <c r="DH129" s="98"/>
-      <c r="DI129" s="98"/>
-      <c r="DJ129" s="98"/>
-      <c r="DK129" s="98"/>
-      <c r="DL129" s="98"/>
-      <c r="DM129" s="98"/>
-      <c r="DN129" s="98"/>
-      <c r="DO129" s="98"/>
-      <c r="DP129" s="98"/>
-      <c r="DQ129" s="98"/>
-      <c r="DR129" s="98"/>
-      <c r="DS129" s="98"/>
-      <c r="DT129" s="98"/>
-      <c r="DU129" s="98"/>
-      <c r="DV129" s="98"/>
-      <c r="DW129" s="98"/>
-      <c r="DX129" s="98"/>
-      <c r="DY129" s="98"/>
-      <c r="DZ129" s="98"/>
-      <c r="EA129" s="98"/>
+      <c r="L129" s="44"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="O129" s="44"/>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="44"/>
+      <c r="S129" s="44"/>
+      <c r="T129" s="44"/>
+      <c r="U129" s="44"/>
+      <c r="V129" s="44"/>
+      <c r="W129" s="44"/>
+      <c r="X129" s="44"/>
+      <c r="Y129" s="44"/>
+      <c r="Z129" s="44"/>
+      <c r="AA129" s="44"/>
+      <c r="AB129" s="44"/>
+      <c r="AC129" s="44"/>
+      <c r="AD129" s="44"/>
+      <c r="AE129" s="44"/>
+      <c r="AF129" s="44"/>
+      <c r="AG129" s="44"/>
+      <c r="AH129" s="44"/>
+      <c r="AI129" s="44"/>
+      <c r="AJ129" s="44"/>
+      <c r="AK129" s="44"/>
+      <c r="AL129" s="44"/>
+      <c r="AM129" s="44"/>
+      <c r="AN129" s="44"/>
+      <c r="AO129" s="44"/>
+      <c r="AP129" s="44"/>
+      <c r="AQ129" s="44"/>
+      <c r="AR129" s="44"/>
+      <c r="AS129" s="44"/>
+      <c r="AT129" s="44"/>
+      <c r="AU129" s="44"/>
+      <c r="AV129" s="44"/>
+      <c r="AW129" s="44"/>
+      <c r="AX129" s="44"/>
+      <c r="AY129" s="44"/>
+      <c r="AZ129" s="44"/>
+      <c r="BA129" s="44"/>
+      <c r="BB129" s="44"/>
+      <c r="BC129" s="44"/>
+      <c r="BD129" s="44"/>
+      <c r="BE129" s="44"/>
+      <c r="BF129" s="44"/>
+      <c r="BG129" s="44"/>
+      <c r="BH129" s="44"/>
+      <c r="BI129" s="44"/>
+      <c r="BJ129" s="44"/>
+      <c r="BK129" s="44"/>
+      <c r="BL129" s="44"/>
+      <c r="BM129" s="44"/>
+      <c r="BN129" s="44"/>
+      <c r="BO129" s="44"/>
+      <c r="BP129" s="44"/>
+      <c r="BQ129" s="44"/>
+      <c r="BR129" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="BS129" s="44"/>
+      <c r="BT129" s="44"/>
+      <c r="BU129" s="44"/>
+      <c r="BV129" s="44"/>
+      <c r="BW129" s="44"/>
+      <c r="BX129" s="44"/>
+      <c r="BY129" s="44"/>
+      <c r="BZ129" s="44"/>
+      <c r="CA129" s="44"/>
+      <c r="CB129" s="44"/>
+      <c r="CC129" s="44"/>
+      <c r="CD129" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="CE129" s="44"/>
+      <c r="CF129" s="44"/>
+      <c r="CG129" s="44"/>
+      <c r="CH129" s="44"/>
+      <c r="CI129" s="44"/>
+      <c r="CJ129" s="44"/>
+      <c r="CK129" s="44"/>
+      <c r="CL129" s="44"/>
+      <c r="CM129" s="44"/>
+      <c r="CN129" s="44"/>
+      <c r="CO129" s="44"/>
+      <c r="CP129" s="44"/>
+      <c r="CQ129" s="44"/>
+      <c r="CR129" s="44"/>
+      <c r="CS129" s="44"/>
+      <c r="CT129" s="44"/>
+      <c r="CU129" s="44"/>
+      <c r="CV129" s="44"/>
+      <c r="CW129" s="44"/>
+      <c r="CX129" s="44"/>
+      <c r="CY129" s="44"/>
+      <c r="CZ129" s="44"/>
+      <c r="DA129" s="44"/>
+      <c r="DB129" s="44"/>
+      <c r="DC129" s="44"/>
+      <c r="DD129" s="44"/>
+      <c r="DE129" s="44"/>
+      <c r="DF129" s="44"/>
+      <c r="DG129" s="44"/>
+      <c r="DH129" s="44"/>
+      <c r="DI129" s="44"/>
+      <c r="DJ129" s="44"/>
+      <c r="DK129" s="44"/>
+      <c r="DL129" s="44"/>
+      <c r="DM129" s="44"/>
+      <c r="DN129" s="44"/>
+      <c r="DO129" s="44"/>
+      <c r="DP129" s="44"/>
+      <c r="DQ129" s="44"/>
+      <c r="DR129" s="44"/>
+      <c r="DS129" s="44"/>
+      <c r="DT129" s="44"/>
+      <c r="DU129" s="44"/>
+      <c r="DV129" s="44"/>
+      <c r="DW129" s="44"/>
+      <c r="DX129" s="44"/>
+      <c r="DY129" s="44"/>
+      <c r="DZ129" s="44"/>
+      <c r="EA129" s="44"/>
     </row>
     <row r="130" spans="1:131" x14ac:dyDescent="0.3">
       <c r="A130" s="74">
         <v>45937</v>
       </c>
-      <c r="B130" s="93"/>
+      <c r="B130" s="75"/>
       <c r="C130" s="76" t="s">
         <v>16</v>
       </c>
@@ -51108,158 +47762,158 @@
       <c r="F130" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G130" s="94">
+      <c r="G130" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="H130" s="94">
+      <c r="H130" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="I130" s="94">
+      <c r="I130" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="J130" s="94">
+      <c r="J130" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="K130" s="94">
+      <c r="K130" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>3</v>
       </c>
-      <c r="L130" s="95"/>
-      <c r="M130" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="N130" s="95"/>
-      <c r="O130" s="95"/>
-      <c r="P130" s="95"/>
-      <c r="Q130" s="95"/>
-      <c r="R130" s="95"/>
-      <c r="S130" s="95"/>
-      <c r="T130" s="95"/>
-      <c r="U130" s="95"/>
-      <c r="V130" s="95"/>
-      <c r="W130" s="95"/>
-      <c r="X130" s="95"/>
-      <c r="Y130" s="95"/>
-      <c r="Z130" s="95"/>
-      <c r="AA130" s="95"/>
-      <c r="AB130" s="95"/>
-      <c r="AC130" s="95"/>
-      <c r="AD130" s="95"/>
-      <c r="AE130" s="95"/>
-      <c r="AF130" s="95"/>
-      <c r="AG130" s="95"/>
-      <c r="AH130" s="95"/>
-      <c r="AI130" s="95"/>
-      <c r="AJ130" s="95"/>
-      <c r="AK130" s="95"/>
-      <c r="AL130" s="95"/>
-      <c r="AM130" s="95"/>
-      <c r="AN130" s="95"/>
-      <c r="AO130" s="95"/>
-      <c r="AP130" s="95"/>
-      <c r="AQ130" s="95"/>
-      <c r="AR130" s="95"/>
-      <c r="AS130" s="95"/>
-      <c r="AT130" s="95"/>
-      <c r="AU130" s="95"/>
-      <c r="AV130" s="95"/>
-      <c r="AW130" s="95"/>
-      <c r="AX130" s="95"/>
-      <c r="AY130" s="95"/>
-      <c r="AZ130" s="95"/>
-      <c r="BA130" s="95"/>
-      <c r="BB130" s="95"/>
-      <c r="BC130" s="95"/>
-      <c r="BD130" s="95"/>
-      <c r="BE130" s="95"/>
-      <c r="BF130" s="95"/>
-      <c r="BG130" s="95"/>
-      <c r="BH130" s="95"/>
-      <c r="BI130" s="95"/>
-      <c r="BJ130" s="95"/>
-      <c r="BK130" s="95"/>
-      <c r="BL130" s="95"/>
-      <c r="BM130" s="95"/>
-      <c r="BN130" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="BO130" s="95"/>
-      <c r="BP130" s="95"/>
-      <c r="BQ130" s="95"/>
-      <c r="BR130" s="95"/>
-      <c r="BS130" s="95"/>
-      <c r="BT130" s="95"/>
-      <c r="BU130" s="95"/>
-      <c r="BV130" s="95"/>
-      <c r="BW130" s="95"/>
-      <c r="BX130" s="95"/>
-      <c r="BY130" s="95"/>
-      <c r="BZ130" s="95"/>
-      <c r="CA130" s="95"/>
-      <c r="CB130" s="95"/>
-      <c r="CC130" s="95"/>
-      <c r="CD130" s="95"/>
-      <c r="CE130" s="95"/>
-      <c r="CF130" s="95"/>
-      <c r="CG130" s="95"/>
-      <c r="CH130" s="95"/>
-      <c r="CI130" s="95"/>
-      <c r="CJ130" s="95"/>
-      <c r="CK130" s="95"/>
-      <c r="CL130" s="95"/>
-      <c r="CM130" s="95"/>
-      <c r="CN130" s="95"/>
-      <c r="CO130" s="95"/>
-      <c r="CP130" s="95"/>
-      <c r="CQ130" s="95"/>
-      <c r="CR130" s="95"/>
-      <c r="CS130" s="95"/>
-      <c r="CT130" s="95"/>
-      <c r="CU130" s="95"/>
-      <c r="CV130" s="95"/>
-      <c r="CW130" s="95"/>
-      <c r="CX130" s="95"/>
-      <c r="CY130" s="95"/>
-      <c r="CZ130" s="95"/>
-      <c r="DA130" s="95"/>
-      <c r="DB130" s="95"/>
-      <c r="DC130" s="95"/>
-      <c r="DD130" s="95"/>
-      <c r="DE130" s="95"/>
-      <c r="DF130" s="95"/>
-      <c r="DG130" s="95"/>
-      <c r="DH130" s="95"/>
-      <c r="DI130" s="95"/>
-      <c r="DJ130" s="95"/>
-      <c r="DK130" s="95"/>
-      <c r="DL130" s="95"/>
-      <c r="DM130" s="95"/>
-      <c r="DN130" s="95"/>
-      <c r="DO130" s="95"/>
-      <c r="DP130" s="95"/>
-      <c r="DQ130" s="95"/>
-      <c r="DR130" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="DS130" s="95"/>
-      <c r="DT130" s="95"/>
-      <c r="DU130" s="95"/>
-      <c r="DV130" s="95"/>
-      <c r="DW130" s="95"/>
-      <c r="DX130" s="95"/>
-      <c r="DY130" s="95"/>
-      <c r="DZ130" s="95"/>
-      <c r="EA130" s="95"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+      <c r="X130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
+      <c r="AC130" s="7"/>
+      <c r="AD130" s="7"/>
+      <c r="AE130" s="7"/>
+      <c r="AF130" s="7"/>
+      <c r="AG130" s="7"/>
+      <c r="AH130" s="7"/>
+      <c r="AI130" s="7"/>
+      <c r="AJ130" s="7"/>
+      <c r="AK130" s="7"/>
+      <c r="AL130" s="7"/>
+      <c r="AM130" s="7"/>
+      <c r="AN130" s="7"/>
+      <c r="AO130" s="7"/>
+      <c r="AP130" s="7"/>
+      <c r="AQ130" s="7"/>
+      <c r="AR130" s="7"/>
+      <c r="AS130" s="7"/>
+      <c r="AT130" s="7"/>
+      <c r="AU130" s="7"/>
+      <c r="AV130" s="7"/>
+      <c r="AW130" s="7"/>
+      <c r="AX130" s="7"/>
+      <c r="AY130" s="7"/>
+      <c r="AZ130" s="7"/>
+      <c r="BA130" s="7"/>
+      <c r="BB130" s="7"/>
+      <c r="BC130" s="7"/>
+      <c r="BD130" s="7"/>
+      <c r="BE130" s="7"/>
+      <c r="BF130" s="7"/>
+      <c r="BG130" s="7"/>
+      <c r="BH130" s="7"/>
+      <c r="BI130" s="7"/>
+      <c r="BJ130" s="7"/>
+      <c r="BK130" s="7"/>
+      <c r="BL130" s="7"/>
+      <c r="BM130" s="7"/>
+      <c r="BN130" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="BO130" s="7"/>
+      <c r="BP130" s="7"/>
+      <c r="BQ130" s="7"/>
+      <c r="BR130" s="7"/>
+      <c r="BS130" s="7"/>
+      <c r="BT130" s="7"/>
+      <c r="BU130" s="7"/>
+      <c r="BV130" s="7"/>
+      <c r="BW130" s="7"/>
+      <c r="BX130" s="7"/>
+      <c r="BY130" s="7"/>
+      <c r="BZ130" s="7"/>
+      <c r="CA130" s="7"/>
+      <c r="CB130" s="7"/>
+      <c r="CC130" s="7"/>
+      <c r="CD130" s="7"/>
+      <c r="CE130" s="7"/>
+      <c r="CF130" s="7"/>
+      <c r="CG130" s="7"/>
+      <c r="CH130" s="7"/>
+      <c r="CI130" s="7"/>
+      <c r="CJ130" s="7"/>
+      <c r="CK130" s="7"/>
+      <c r="CL130" s="7"/>
+      <c r="CM130" s="7"/>
+      <c r="CN130" s="7"/>
+      <c r="CO130" s="7"/>
+      <c r="CP130" s="7"/>
+      <c r="CQ130" s="7"/>
+      <c r="CR130" s="7"/>
+      <c r="CS130" s="7"/>
+      <c r="CT130" s="7"/>
+      <c r="CU130" s="7"/>
+      <c r="CV130" s="7"/>
+      <c r="CW130" s="7"/>
+      <c r="CX130" s="7"/>
+      <c r="CY130" s="7"/>
+      <c r="CZ130" s="7"/>
+      <c r="DA130" s="7"/>
+      <c r="DB130" s="7"/>
+      <c r="DC130" s="7"/>
+      <c r="DD130" s="7"/>
+      <c r="DE130" s="7"/>
+      <c r="DF130" s="7"/>
+      <c r="DG130" s="7"/>
+      <c r="DH130" s="7"/>
+      <c r="DI130" s="7"/>
+      <c r="DJ130" s="7"/>
+      <c r="DK130" s="7"/>
+      <c r="DL130" s="7"/>
+      <c r="DM130" s="7"/>
+      <c r="DN130" s="7"/>
+      <c r="DO130" s="7"/>
+      <c r="DP130" s="7"/>
+      <c r="DQ130" s="7"/>
+      <c r="DR130" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="DS130" s="7"/>
+      <c r="DT130" s="7"/>
+      <c r="DU130" s="7"/>
+      <c r="DV130" s="7"/>
+      <c r="DW130" s="7"/>
+      <c r="DX130" s="7"/>
+      <c r="DY130" s="7"/>
+      <c r="DZ130" s="7"/>
+      <c r="EA130" s="7"/>
     </row>
     <row r="131" spans="1:131" x14ac:dyDescent="0.3">
       <c r="A131" s="74">
         <v>45965</v>
       </c>
-      <c r="B131" s="93"/>
+      <c r="B131" s="75"/>
       <c r="C131" s="76" t="s">
         <v>16</v>
       </c>
@@ -51272,154 +47926,154 @@
       <c r="F131" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="G131" s="94">
+      <c r="G131" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="H131" s="94">
+      <c r="H131" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="I131" s="94">
+      <c r="I131" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="J131" s="94">
+      <c r="J131" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>1</v>
       </c>
-      <c r="K131" s="94">
+      <c r="K131" s="76">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="L131" s="95"/>
-      <c r="M131" s="95"/>
-      <c r="N131" s="95"/>
-      <c r="O131" s="95"/>
-      <c r="P131" s="95"/>
-      <c r="Q131" s="95"/>
-      <c r="R131" s="95"/>
-      <c r="S131" s="95"/>
-      <c r="T131" s="95"/>
-      <c r="U131" s="95"/>
-      <c r="V131" s="95"/>
-      <c r="W131" s="95"/>
-      <c r="X131" s="95"/>
-      <c r="Y131" s="95"/>
-      <c r="Z131" s="95"/>
-      <c r="AA131" s="95"/>
-      <c r="AB131" s="95"/>
-      <c r="AC131" s="95"/>
-      <c r="AD131" s="95"/>
-      <c r="AE131" s="95"/>
-      <c r="AF131" s="95"/>
-      <c r="AG131" s="95"/>
-      <c r="AH131" s="95"/>
-      <c r="AI131" s="95"/>
-      <c r="AJ131" s="95"/>
-      <c r="AK131" s="95"/>
-      <c r="AL131" s="95"/>
-      <c r="AM131" s="95"/>
-      <c r="AN131" s="95"/>
-      <c r="AO131" s="95"/>
-      <c r="AP131" s="95"/>
-      <c r="AQ131" s="95"/>
-      <c r="AR131" s="95"/>
-      <c r="AS131" s="95"/>
-      <c r="AT131" s="95"/>
-      <c r="AU131" s="95"/>
-      <c r="AV131" s="95"/>
-      <c r="AW131" s="95"/>
-      <c r="AX131" s="95"/>
-      <c r="AY131" s="95"/>
-      <c r="AZ131" s="95"/>
-      <c r="BA131" s="95"/>
-      <c r="BB131" s="95"/>
-      <c r="BC131" s="95"/>
-      <c r="BD131" s="95"/>
-      <c r="BE131" s="95"/>
-      <c r="BF131" s="95"/>
-      <c r="BG131" s="95"/>
-      <c r="BH131" s="95"/>
-      <c r="BI131" s="95"/>
-      <c r="BJ131" s="95"/>
-      <c r="BK131" s="95"/>
-      <c r="BL131" s="95"/>
-      <c r="BM131" s="95"/>
-      <c r="BN131" s="95"/>
-      <c r="BO131" s="95"/>
-      <c r="BP131" s="95"/>
-      <c r="BQ131" s="95"/>
-      <c r="BR131" s="95"/>
-      <c r="BS131" s="95"/>
-      <c r="BT131" s="95"/>
-      <c r="BU131" s="95"/>
-      <c r="BV131" s="95"/>
-      <c r="BW131" s="95"/>
-      <c r="BX131" s="95"/>
-      <c r="BY131" s="95"/>
-      <c r="BZ131" s="95"/>
-      <c r="CA131" s="95"/>
-      <c r="CB131" s="95"/>
-      <c r="CC131" s="95"/>
-      <c r="CD131" s="95"/>
-      <c r="CE131" s="95"/>
-      <c r="CF131" s="95"/>
-      <c r="CG131" s="95"/>
-      <c r="CH131" s="95"/>
-      <c r="CI131" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="CJ131" s="95"/>
-      <c r="CK131" s="95"/>
-      <c r="CL131" s="95"/>
-      <c r="CM131" s="95"/>
-      <c r="CN131" s="95"/>
-      <c r="CO131" s="95"/>
-      <c r="CP131" s="95"/>
-      <c r="CQ131" s="95"/>
-      <c r="CR131" s="95"/>
-      <c r="CS131" s="95"/>
-      <c r="CT131" s="95"/>
-      <c r="CU131" s="95"/>
-      <c r="CV131" s="95"/>
-      <c r="CW131" s="95"/>
-      <c r="CX131" s="95"/>
-      <c r="CY131" s="95"/>
-      <c r="CZ131" s="95"/>
-      <c r="DA131" s="95"/>
-      <c r="DB131" s="95"/>
-      <c r="DC131" s="95"/>
-      <c r="DD131" s="95"/>
-      <c r="DE131" s="95"/>
-      <c r="DF131" s="95"/>
-      <c r="DG131" s="95"/>
-      <c r="DH131" s="95"/>
-      <c r="DI131" s="95"/>
-      <c r="DJ131" s="95"/>
-      <c r="DK131" s="95"/>
-      <c r="DL131" s="95"/>
-      <c r="DM131" s="95"/>
-      <c r="DN131" s="95"/>
-      <c r="DO131" s="95"/>
-      <c r="DP131" s="95"/>
-      <c r="DQ131" s="95"/>
-      <c r="DR131" s="95"/>
-      <c r="DS131" s="95"/>
-      <c r="DT131" s="95"/>
-      <c r="DU131" s="95"/>
-      <c r="DV131" s="95"/>
-      <c r="DW131" s="95"/>
-      <c r="DX131" s="95"/>
-      <c r="DY131" s="95"/>
-      <c r="DZ131" s="95"/>
-      <c r="EA131" s="95"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="7"/>
+      <c r="AG131" s="7"/>
+      <c r="AH131" s="7"/>
+      <c r="AI131" s="7"/>
+      <c r="AJ131" s="7"/>
+      <c r="AK131" s="7"/>
+      <c r="AL131" s="7"/>
+      <c r="AM131" s="7"/>
+      <c r="AN131" s="7"/>
+      <c r="AO131" s="7"/>
+      <c r="AP131" s="7"/>
+      <c r="AQ131" s="7"/>
+      <c r="AR131" s="7"/>
+      <c r="AS131" s="7"/>
+      <c r="AT131" s="7"/>
+      <c r="AU131" s="7"/>
+      <c r="AV131" s="7"/>
+      <c r="AW131" s="7"/>
+      <c r="AX131" s="7"/>
+      <c r="AY131" s="7"/>
+      <c r="AZ131" s="7"/>
+      <c r="BA131" s="7"/>
+      <c r="BB131" s="7"/>
+      <c r="BC131" s="7"/>
+      <c r="BD131" s="7"/>
+      <c r="BE131" s="7"/>
+      <c r="BF131" s="7"/>
+      <c r="BG131" s="7"/>
+      <c r="BH131" s="7"/>
+      <c r="BI131" s="7"/>
+      <c r="BJ131" s="7"/>
+      <c r="BK131" s="7"/>
+      <c r="BL131" s="7"/>
+      <c r="BM131" s="7"/>
+      <c r="BN131" s="7"/>
+      <c r="BO131" s="7"/>
+      <c r="BP131" s="7"/>
+      <c r="BQ131" s="7"/>
+      <c r="BR131" s="7"/>
+      <c r="BS131" s="7"/>
+      <c r="BT131" s="7"/>
+      <c r="BU131" s="7"/>
+      <c r="BV131" s="7"/>
+      <c r="BW131" s="7"/>
+      <c r="BX131" s="7"/>
+      <c r="BY131" s="7"/>
+      <c r="BZ131" s="7"/>
+      <c r="CA131" s="7"/>
+      <c r="CB131" s="7"/>
+      <c r="CC131" s="7"/>
+      <c r="CD131" s="7"/>
+      <c r="CE131" s="7"/>
+      <c r="CF131" s="7"/>
+      <c r="CG131" s="7"/>
+      <c r="CH131" s="7"/>
+      <c r="CI131" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="CJ131" s="7"/>
+      <c r="CK131" s="7"/>
+      <c r="CL131" s="7"/>
+      <c r="CM131" s="7"/>
+      <c r="CN131" s="7"/>
+      <c r="CO131" s="7"/>
+      <c r="CP131" s="7"/>
+      <c r="CQ131" s="7"/>
+      <c r="CR131" s="7"/>
+      <c r="CS131" s="7"/>
+      <c r="CT131" s="7"/>
+      <c r="CU131" s="7"/>
+      <c r="CV131" s="7"/>
+      <c r="CW131" s="7"/>
+      <c r="CX131" s="7"/>
+      <c r="CY131" s="7"/>
+      <c r="CZ131" s="7"/>
+      <c r="DA131" s="7"/>
+      <c r="DB131" s="7"/>
+      <c r="DC131" s="7"/>
+      <c r="DD131" s="7"/>
+      <c r="DE131" s="7"/>
+      <c r="DF131" s="7"/>
+      <c r="DG131" s="7"/>
+      <c r="DH131" s="7"/>
+      <c r="DI131" s="7"/>
+      <c r="DJ131" s="7"/>
+      <c r="DK131" s="7"/>
+      <c r="DL131" s="7"/>
+      <c r="DM131" s="7"/>
+      <c r="DN131" s="7"/>
+      <c r="DO131" s="7"/>
+      <c r="DP131" s="7"/>
+      <c r="DQ131" s="7"/>
+      <c r="DR131" s="7"/>
+      <c r="DS131" s="7"/>
+      <c r="DT131" s="7"/>
+      <c r="DU131" s="7"/>
+      <c r="DV131" s="7"/>
+      <c r="DW131" s="7"/>
+      <c r="DX131" s="7"/>
+      <c r="DY131" s="7"/>
+      <c r="DZ131" s="7"/>
+      <c r="EA131" s="7"/>
     </row>
     <row r="132" spans="1:131" x14ac:dyDescent="0.3">
       <c r="A132" s="77">
         <v>45966</v>
       </c>
-      <c r="B132" s="96"/>
+      <c r="B132" s="78"/>
       <c r="C132" s="81" t="s">
         <v>16</v>
       </c>
@@ -51432,774 +48086,774 @@
       <c r="F132" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="G132" s="97">
+      <c r="G132" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Primeiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="H132" s="97">
+      <c r="H132" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Segundo Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="I132" s="97">
+      <c r="I132" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Terceiro Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="97">
+      <c r="J132" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Quarto Ciclo",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>1</v>
       </c>
-      <c r="K132" s="97">
+      <c r="K132" s="81">
         <f>IF(Tabela16[[#This Row],[CICLO INSPECAO]]="Troca de Spindle",COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"x"),0)</f>
         <v>0</v>
       </c>
-      <c r="L132" s="98"/>
-      <c r="M132" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="N132" s="98"/>
-      <c r="O132" s="98"/>
-      <c r="P132" s="98"/>
-      <c r="Q132" s="98"/>
-      <c r="R132" s="98"/>
-      <c r="S132" s="98"/>
-      <c r="T132" s="98"/>
-      <c r="U132" s="98"/>
-      <c r="V132" s="98"/>
-      <c r="W132" s="98"/>
-      <c r="X132" s="98"/>
-      <c r="Y132" s="98"/>
-      <c r="Z132" s="98"/>
-      <c r="AA132" s="98"/>
-      <c r="AB132" s="98"/>
-      <c r="AC132" s="98"/>
-      <c r="AD132" s="98"/>
-      <c r="AE132" s="98"/>
-      <c r="AF132" s="98"/>
-      <c r="AG132" s="98"/>
-      <c r="AH132" s="98"/>
-      <c r="AI132" s="98"/>
-      <c r="AJ132" s="98"/>
-      <c r="AK132" s="98"/>
-      <c r="AL132" s="98"/>
-      <c r="AM132" s="98"/>
-      <c r="AN132" s="98"/>
-      <c r="AO132" s="98"/>
-      <c r="AP132" s="98"/>
-      <c r="AQ132" s="98"/>
-      <c r="AR132" s="98"/>
-      <c r="AS132" s="98"/>
-      <c r="AT132" s="98"/>
-      <c r="AU132" s="98"/>
-      <c r="AV132" s="98"/>
-      <c r="AW132" s="98"/>
-      <c r="AX132" s="98"/>
-      <c r="AY132" s="98"/>
-      <c r="AZ132" s="98"/>
-      <c r="BA132" s="98"/>
-      <c r="BB132" s="98"/>
-      <c r="BC132" s="98"/>
-      <c r="BD132" s="98"/>
-      <c r="BE132" s="98"/>
-      <c r="BF132" s="98"/>
-      <c r="BG132" s="98"/>
-      <c r="BH132" s="98"/>
-      <c r="BI132" s="98"/>
-      <c r="BJ132" s="98"/>
-      <c r="BK132" s="98"/>
-      <c r="BL132" s="98"/>
-      <c r="BM132" s="98"/>
-      <c r="BN132" s="98"/>
-      <c r="BO132" s="98"/>
-      <c r="BP132" s="98"/>
-      <c r="BQ132" s="98"/>
-      <c r="BR132" s="98"/>
-      <c r="BS132" s="98"/>
-      <c r="BT132" s="98"/>
-      <c r="BU132" s="98"/>
-      <c r="BV132" s="98"/>
-      <c r="BW132" s="98"/>
-      <c r="BX132" s="98"/>
-      <c r="BY132" s="98"/>
-      <c r="BZ132" s="98"/>
-      <c r="CA132" s="98"/>
-      <c r="CB132" s="98"/>
-      <c r="CC132" s="98"/>
-      <c r="CD132" s="98"/>
-      <c r="CE132" s="98"/>
-      <c r="CF132" s="98"/>
-      <c r="CG132" s="98"/>
-      <c r="CH132" s="98"/>
-      <c r="CI132" s="98"/>
-      <c r="CJ132" s="98"/>
-      <c r="CK132" s="98"/>
-      <c r="CL132" s="98"/>
-      <c r="CM132" s="98"/>
-      <c r="CN132" s="98"/>
-      <c r="CO132" s="98"/>
-      <c r="CP132" s="98"/>
-      <c r="CQ132" s="98"/>
-      <c r="CR132" s="98"/>
-      <c r="CS132" s="98"/>
-      <c r="CT132" s="98"/>
-      <c r="CU132" s="98"/>
-      <c r="CV132" s="98"/>
-      <c r="CW132" s="98"/>
-      <c r="CX132" s="98"/>
-      <c r="CY132" s="98"/>
-      <c r="CZ132" s="98"/>
-      <c r="DA132" s="98"/>
-      <c r="DB132" s="98"/>
-      <c r="DC132" s="98"/>
-      <c r="DD132" s="98"/>
-      <c r="DE132" s="98"/>
-      <c r="DF132" s="98"/>
-      <c r="DG132" s="98"/>
-      <c r="DH132" s="98"/>
-      <c r="DI132" s="98"/>
-      <c r="DJ132" s="98"/>
-      <c r="DK132" s="98"/>
-      <c r="DL132" s="98"/>
-      <c r="DM132" s="98"/>
-      <c r="DN132" s="98"/>
-      <c r="DO132" s="98"/>
-      <c r="DP132" s="98"/>
-      <c r="DQ132" s="98"/>
-      <c r="DR132" s="98"/>
-      <c r="DS132" s="98"/>
-      <c r="DT132" s="98"/>
-      <c r="DU132" s="98"/>
-      <c r="DV132" s="98"/>
-      <c r="DW132" s="98"/>
-      <c r="DX132" s="98"/>
-      <c r="DY132" s="98"/>
-      <c r="DZ132" s="98"/>
-      <c r="EA132" s="98"/>
+      <c r="L132" s="44"/>
+      <c r="M132" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="N132" s="44"/>
+      <c r="O132" s="44"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="44"/>
+      <c r="R132" s="44"/>
+      <c r="S132" s="44"/>
+      <c r="T132" s="44"/>
+      <c r="U132" s="44"/>
+      <c r="V132" s="44"/>
+      <c r="W132" s="44"/>
+      <c r="X132" s="44"/>
+      <c r="Y132" s="44"/>
+      <c r="Z132" s="44"/>
+      <c r="AA132" s="44"/>
+      <c r="AB132" s="44"/>
+      <c r="AC132" s="44"/>
+      <c r="AD132" s="44"/>
+      <c r="AE132" s="44"/>
+      <c r="AF132" s="44"/>
+      <c r="AG132" s="44"/>
+      <c r="AH132" s="44"/>
+      <c r="AI132" s="44"/>
+      <c r="AJ132" s="44"/>
+      <c r="AK132" s="44"/>
+      <c r="AL132" s="44"/>
+      <c r="AM132" s="44"/>
+      <c r="AN132" s="44"/>
+      <c r="AO132" s="44"/>
+      <c r="AP132" s="44"/>
+      <c r="AQ132" s="44"/>
+      <c r="AR132" s="44"/>
+      <c r="AS132" s="44"/>
+      <c r="AT132" s="44"/>
+      <c r="AU132" s="44"/>
+      <c r="AV132" s="44"/>
+      <c r="AW132" s="44"/>
+      <c r="AX132" s="44"/>
+      <c r="AY132" s="44"/>
+      <c r="AZ132" s="44"/>
+      <c r="BA132" s="44"/>
+      <c r="BB132" s="44"/>
+      <c r="BC132" s="44"/>
+      <c r="BD132" s="44"/>
+      <c r="BE132" s="44"/>
+      <c r="BF132" s="44"/>
+      <c r="BG132" s="44"/>
+      <c r="BH132" s="44"/>
+      <c r="BI132" s="44"/>
+      <c r="BJ132" s="44"/>
+      <c r="BK132" s="44"/>
+      <c r="BL132" s="44"/>
+      <c r="BM132" s="44"/>
+      <c r="BN132" s="44"/>
+      <c r="BO132" s="44"/>
+      <c r="BP132" s="44"/>
+      <c r="BQ132" s="44"/>
+      <c r="BR132" s="44"/>
+      <c r="BS132" s="44"/>
+      <c r="BT132" s="44"/>
+      <c r="BU132" s="44"/>
+      <c r="BV132" s="44"/>
+      <c r="BW132" s="44"/>
+      <c r="BX132" s="44"/>
+      <c r="BY132" s="44"/>
+      <c r="BZ132" s="44"/>
+      <c r="CA132" s="44"/>
+      <c r="CB132" s="44"/>
+      <c r="CC132" s="44"/>
+      <c r="CD132" s="44"/>
+      <c r="CE132" s="44"/>
+      <c r="CF132" s="44"/>
+      <c r="CG132" s="44"/>
+      <c r="CH132" s="44"/>
+      <c r="CI132" s="44"/>
+      <c r="CJ132" s="44"/>
+      <c r="CK132" s="44"/>
+      <c r="CL132" s="44"/>
+      <c r="CM132" s="44"/>
+      <c r="CN132" s="44"/>
+      <c r="CO132" s="44"/>
+      <c r="CP132" s="44"/>
+      <c r="CQ132" s="44"/>
+      <c r="CR132" s="44"/>
+      <c r="CS132" s="44"/>
+      <c r="CT132" s="44"/>
+      <c r="CU132" s="44"/>
+      <c r="CV132" s="44"/>
+      <c r="CW132" s="44"/>
+      <c r="CX132" s="44"/>
+      <c r="CY132" s="44"/>
+      <c r="CZ132" s="44"/>
+      <c r="DA132" s="44"/>
+      <c r="DB132" s="44"/>
+      <c r="DC132" s="44"/>
+      <c r="DD132" s="44"/>
+      <c r="DE132" s="44"/>
+      <c r="DF132" s="44"/>
+      <c r="DG132" s="44"/>
+      <c r="DH132" s="44"/>
+      <c r="DI132" s="44"/>
+      <c r="DJ132" s="44"/>
+      <c r="DK132" s="44"/>
+      <c r="DL132" s="44"/>
+      <c r="DM132" s="44"/>
+      <c r="DN132" s="44"/>
+      <c r="DO132" s="44"/>
+      <c r="DP132" s="44"/>
+      <c r="DQ132" s="44"/>
+      <c r="DR132" s="44"/>
+      <c r="DS132" s="44"/>
+      <c r="DT132" s="44"/>
+      <c r="DU132" s="44"/>
+      <c r="DV132" s="44"/>
+      <c r="DW132" s="44"/>
+      <c r="DX132" s="44"/>
+      <c r="DY132" s="44"/>
+      <c r="DZ132" s="44"/>
+      <c r="EA132" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F2:K132">
-    <cfRule type="expression" dxfId="135" priority="134">
+    <cfRule type="expression" dxfId="143" priority="135">
+      <formula>$EB2="Segundo Ciclo"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="134">
       <formula>$EB2="Terceiro Ciclo"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="135">
-      <formula>$EB2="Segundo Ciclo"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="136">
+    <cfRule type="expression" dxfId="141" priority="136">
       <formula>$EB2="Primeiro Ciclo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G132">
-    <cfRule type="expression" dxfId="132" priority="3">
+    <cfRule type="expression" dxfId="140" priority="3">
       <formula>$G2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H132">
-    <cfRule type="expression" dxfId="131" priority="2">
+    <cfRule type="expression" dxfId="139" priority="2">
       <formula>$H2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J132">
-    <cfRule type="expression" dxfId="130" priority="1">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>$I2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L132">
-    <cfRule type="expression" dxfId="129" priority="133">
+    <cfRule type="expression" dxfId="137" priority="133">
       <formula>$L2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M132">
-    <cfRule type="expression" dxfId="128" priority="132">
+    <cfRule type="expression" dxfId="136" priority="132">
       <formula>$M2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N132">
-    <cfRule type="expression" dxfId="127" priority="131">
+    <cfRule type="expression" dxfId="135" priority="131">
       <formula>$N2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O132">
-    <cfRule type="expression" dxfId="126" priority="130">
+    <cfRule type="expression" dxfId="134" priority="130">
       <formula>$O2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P132">
-    <cfRule type="expression" dxfId="125" priority="129">
+    <cfRule type="expression" dxfId="133" priority="129">
       <formula>$P2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q132">
-    <cfRule type="expression" dxfId="124" priority="128">
+    <cfRule type="expression" dxfId="132" priority="128">
       <formula>$Q2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R132">
-    <cfRule type="expression" dxfId="123" priority="127">
+    <cfRule type="expression" dxfId="131" priority="127">
       <formula>$R2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S132">
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="130" priority="126">
       <formula>$S2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T132">
-    <cfRule type="expression" dxfId="121" priority="125">
+    <cfRule type="expression" dxfId="129" priority="125">
       <formula>$T2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U132">
-    <cfRule type="expression" dxfId="120" priority="124">
+    <cfRule type="expression" dxfId="128" priority="124">
       <formula>$U2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V132">
-    <cfRule type="expression" dxfId="119" priority="123">
+    <cfRule type="expression" dxfId="127" priority="123">
       <formula>$V2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W132">
-    <cfRule type="expression" dxfId="118" priority="122">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>$W2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X132">
-    <cfRule type="expression" dxfId="117" priority="121">
+    <cfRule type="expression" dxfId="125" priority="121">
       <formula>$X2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y132">
-    <cfRule type="expression" dxfId="116" priority="120">
+    <cfRule type="expression" dxfId="124" priority="120">
       <formula>$Y2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z132">
-    <cfRule type="expression" dxfId="115" priority="119">
+    <cfRule type="expression" dxfId="123" priority="119">
       <formula>$Z2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA132">
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="122" priority="118">
       <formula>$AA2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB132">
-    <cfRule type="expression" dxfId="113" priority="117">
+    <cfRule type="expression" dxfId="121" priority="117">
       <formula>$AB2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC132">
-    <cfRule type="expression" dxfId="112" priority="116">
+    <cfRule type="expression" dxfId="120" priority="116">
       <formula>$AC2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD132">
-    <cfRule type="expression" dxfId="111" priority="115">
+    <cfRule type="expression" dxfId="119" priority="115">
       <formula>$AD2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE132">
-    <cfRule type="expression" dxfId="110" priority="114">
+    <cfRule type="expression" dxfId="118" priority="114">
       <formula>$AE2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF132">
-    <cfRule type="expression" dxfId="109" priority="113">
+    <cfRule type="expression" dxfId="117" priority="113">
       <formula>$AF2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG132">
-    <cfRule type="expression" dxfId="108" priority="112">
+    <cfRule type="expression" dxfId="116" priority="112">
       <formula>$AG2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH132">
-    <cfRule type="expression" dxfId="107" priority="111">
+    <cfRule type="expression" dxfId="115" priority="111">
       <formula>$AH2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI132">
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="114" priority="110">
       <formula>$AI2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ132">
-    <cfRule type="expression" dxfId="105" priority="109">
+    <cfRule type="expression" dxfId="113" priority="109">
       <formula>$AJ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK132">
-    <cfRule type="expression" dxfId="104" priority="108">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>$AK2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL132">
-    <cfRule type="expression" dxfId="103" priority="107">
+    <cfRule type="expression" dxfId="111" priority="107">
       <formula>$AL2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AM132">
-    <cfRule type="expression" dxfId="102" priority="106">
+    <cfRule type="expression" dxfId="110" priority="106">
       <formula>$AM2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2:AN132">
-    <cfRule type="expression" dxfId="101" priority="105">
+    <cfRule type="expression" dxfId="109" priority="105">
       <formula>$AN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AO132">
-    <cfRule type="expression" dxfId="100" priority="104">
+    <cfRule type="expression" dxfId="108" priority="104">
       <formula>$AO2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP132">
-    <cfRule type="expression" dxfId="99" priority="103">
+    <cfRule type="expression" dxfId="107" priority="103">
       <formula>$AP2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AQ132">
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>$AQ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AR132">
-    <cfRule type="expression" dxfId="97" priority="101">
+    <cfRule type="expression" dxfId="105" priority="101">
       <formula>$AR2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AS132">
-    <cfRule type="expression" dxfId="96" priority="100">
+    <cfRule type="expression" dxfId="104" priority="100">
       <formula>$AS2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:AT132">
-    <cfRule type="expression" dxfId="95" priority="99">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>$AT2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU2:AU132">
-    <cfRule type="expression" dxfId="94" priority="98">
+    <cfRule type="expression" dxfId="102" priority="98">
       <formula>$AU2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AV132">
-    <cfRule type="expression" dxfId="93" priority="97">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>$AV2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:AW132">
-    <cfRule type="expression" dxfId="92" priority="96">
+    <cfRule type="expression" dxfId="100" priority="96">
       <formula>$AW2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX2:AX132">
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="99" priority="95">
       <formula>$AX2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:AY132">
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>$AY2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ2:AZ132">
-    <cfRule type="expression" dxfId="89" priority="93">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>$AZ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BA132">
-    <cfRule type="expression" dxfId="88" priority="92">
+    <cfRule type="expression" dxfId="96" priority="92">
       <formula>$BA2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB2:BB132">
-    <cfRule type="expression" dxfId="87" priority="91">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>$BB2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC2:BC132">
-    <cfRule type="expression" dxfId="86" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>$BC2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BD132">
-    <cfRule type="expression" dxfId="85" priority="89">
+    <cfRule type="expression" dxfId="93" priority="89">
       <formula>$BD2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE2:BE132">
-    <cfRule type="expression" dxfId="84" priority="88">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>$BE2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF2:BF132">
-    <cfRule type="expression" dxfId="83" priority="87">
+    <cfRule type="expression" dxfId="91" priority="87">
       <formula>$BF2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG2:BG132">
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>$BG2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH2:BH132">
-    <cfRule type="expression" dxfId="81" priority="85">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>$BH2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI2:BI132">
-    <cfRule type="expression" dxfId="80" priority="84">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>$BI2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ2:BJ132">
-    <cfRule type="expression" dxfId="79" priority="83">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>$BJ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2:BK132">
-    <cfRule type="expression" dxfId="78" priority="82">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>$BK2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL2:BL132">
-    <cfRule type="expression" dxfId="77" priority="81">
+    <cfRule type="expression" dxfId="85" priority="81">
       <formula>$BL2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM2:BM132">
-    <cfRule type="expression" dxfId="76" priority="80">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>$BM2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN2:BN132">
-    <cfRule type="expression" dxfId="75" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>$BN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO2:BO132">
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>$BO2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BP132">
-    <cfRule type="expression" dxfId="73" priority="77">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>$BP2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ2:BQ132">
-    <cfRule type="expression" dxfId="72" priority="76">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>$BQ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR2:BR132">
-    <cfRule type="expression" dxfId="71" priority="75">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>$BR2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS2:BS132">
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>$BS2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT2:BT132">
-    <cfRule type="expression" dxfId="69" priority="73">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>$BT2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU2:BU132">
-    <cfRule type="expression" dxfId="68" priority="72">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>$BU2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV2:BV132">
-    <cfRule type="expression" dxfId="67" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>$BV2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW2:BW132">
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>$BW2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX2:BX132">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="73" priority="69">
       <formula>$BX2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY2:BY132">
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>$BY2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ2:BZ132">
-    <cfRule type="expression" dxfId="63" priority="67">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>$BZ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA2:CA132">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>$CA2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB2:CB132">
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>$CB2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC2:CC132">
-    <cfRule type="expression" dxfId="60" priority="64">
+    <cfRule type="expression" dxfId="68" priority="64">
       <formula>$CC2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD2:CD132">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="67" priority="63">
       <formula>$CD2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE2:CE132">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>$CE2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF2:CF132">
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>$CF2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG2:CG132">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>$CG2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH2:CH132">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>$CH2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI2:CI132">
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>$CI2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ2:CJ132">
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$CJ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK2:CK132">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>$CK2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CL132">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$CL2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM2:CM132">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>$CM2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN2:CN132">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>$CN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO2:CO132">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>$CO2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP2:CP132">
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>$CP2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ2:CQ132">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>$CQ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR2:CR132">
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>$CR2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS2:CS132">
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>$CS2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT2:CT132">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$CT2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU2:CU132">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>$CU2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV2:CV132">
-    <cfRule type="expression" dxfId="41" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$CV2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW2:CW132">
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$CW2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX2:CX132">
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$CX2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY2:CY132">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$CY2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ2:CZ132">
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="45" priority="41">
       <formula>$CZ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA2:DA132">
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$DA2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB2:DB132">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>$DB2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC2:DC132">
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$DC2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD2:DD132">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>$DD2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DE132">
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$DE2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF2:DF132">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$DF2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG2:DG132">
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$DG2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DH2:DH132">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$DH2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DI132">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>$DI2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ2:DJ132">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$DJ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DK2:DK132">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="34" priority="28">
       <formula>$DK2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DL2:DL132">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$DL2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:DM132">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>$DM2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN2:DN132">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>$DN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DO2:DO132">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>$DO2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DP2:DP132">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>$DP2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ2:DQ132">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>$DQ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DR2:DR132">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>$DR2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS2:DS132">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>$DS2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT2:DT132">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>$DT2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DU2:DU132">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>$DU2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DV2:DV132">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>$DV2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DW2:DW132">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>$DW2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX2:DX132">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>$DX2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DY2:DY132">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>$DY2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ2:DZ132">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>$DZ2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA2:EA132">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>$EA2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61309,11 +57963,11 @@
       </c>
       <c r="I24" s="16" cm="1">
         <f t="array" ref="I24">MAX(IF(Dados_Brutos!D:D=Tabela11[[#This Row],[TURBINA]],Dados_Brutos!A:A))</f>
-        <v>45616</v>
+        <v>45972</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="2"/>
-        <v>45828</v>
+        <v>46184</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -61457,11 +58111,11 @@
       </c>
       <c r="I28" s="16" cm="1">
         <f t="array" ref="I28">MAX(IF(Dados_Brutos!D:D=Tabela11[[#This Row],[TURBINA]],Dados_Brutos!A:A))</f>
-        <v>45630</v>
+        <v>45971</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>46183</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -61766,19 +58420,19 @@
       </c>
       <c r="C37" s="54">
         <f>SUMIF(Dados_Brutos!D:D, B37, Dados_Brutos!E:E)</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D37" s="55">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E37" s="55">
         <f>IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!K:K, "Alto")&gt;0,0.8,IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!K:K, "Médio"),0.8,1))*Tabela11[[#This Row],[% IMAS TROCADOS]]</f>
-        <v>0.2</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F37" s="55">
         <f>IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!L:L,"Alto")&gt;0, 0.8, IF(COUNTIFS(Dados_Brutos!D:D,Tabela11[[#This Row],[TURBINA]],Dados_Brutos!L:L,"Médio")&gt;0, 0.9, 1))*Tabela11[[#This Row],[% IMAS TROCADOS]]</f>
-        <v>0.2</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="G37" s="15" t="str">
         <f>COUNTIF(Tabela16[[#This Row],[C-01]:[C-120]],"X") &amp; "/120"</f>
@@ -61790,11 +58444,11 @@
       </c>
       <c r="I37" s="16" cm="1">
         <f t="array" ref="I37">MAX(IF(Dados_Brutos!D:D=Tabela11[[#This Row],[TURBINA]],Dados_Brutos!A:A))</f>
-        <v>45736</v>
+        <v>45974</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="2"/>
-        <v>45950</v>
+        <v>46186</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -62212,22 +58866,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C48">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$C2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D48">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$D2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E48">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$E2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F48">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
